--- a/Jogos_do_Dia/2023-01-29_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-29_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH90"/>
+  <dimension ref="A1:AH91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="G3" t="n">
-        <v>3.77</v>
+        <v>3.7</v>
       </c>
       <c r="H3" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="I3" t="n">
         <v>1.03</v>
@@ -761,10 +761,10 @@
         <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="N3" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.27</v>
+        <v>2.98</v>
       </c>
       <c r="G4" t="n">
-        <v>3.65</v>
+        <v>3.76</v>
       </c>
       <c r="H4" t="n">
-        <v>2.04</v>
+        <v>2.35</v>
       </c>
       <c r="I4" t="n">
         <v>1.02</v>
@@ -871,10 +871,10 @@
         <v>3.8</v>
       </c>
       <c r="M4" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="N4" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -960,13 +960,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>3.22</v>
       </c>
       <c r="H5" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="I5" t="n">
         <v>1.07</v>
@@ -1070,13 +1070,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="G6" t="n">
-        <v>3.48</v>
+        <v>3.7</v>
       </c>
       <c r="H6" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="I6" t="n">
         <v>1.03</v>
@@ -1091,10 +1091,10 @@
         <v>4.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="N6" t="n">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
@@ -1180,13 +1180,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.35</v>
+        <v>3.02</v>
       </c>
       <c r="I7" t="n">
         <v>1.03</v>
@@ -1201,10 +1201,10 @@
         <v>3.2</v>
       </c>
       <c r="M7" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="N7" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.44</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="G8" t="n">
-        <v>5.45</v>
+        <v>4.9</v>
       </c>
       <c r="H8" t="n">
-        <v>8.949999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="I8" t="n">
         <v>1.01</v>
@@ -1311,10 +1311,10 @@
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="N8" t="n">
-        <v>2.18</v>
+        <v>2.35</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1400,13 +1400,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
         <v>1.09</v>
@@ -1418,13 +1418,13 @@
         <v>1.5</v>
       </c>
       <c r="L9" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="M9" t="n">
-        <v>2.43</v>
+        <v>2.48</v>
       </c>
       <c r="N9" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="O9" t="n">
         <v>1.56</v>
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="G10" t="n">
-        <v>3.35</v>
+        <v>3.48</v>
       </c>
       <c r="H10" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="I10" t="n">
         <v>1.06</v>
@@ -1531,10 +1531,10 @@
         <v>3.3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="N10" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="G11" t="n">
-        <v>3.15</v>
+        <v>3.48</v>
       </c>
       <c r="H11" t="n">
         <v>2.65</v>
@@ -1641,10 +1641,10 @@
         <v>3.46</v>
       </c>
       <c r="M11" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="N11" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="O11" t="n">
         <v>1.37</v>
@@ -1683,13 +1683,13 @@
         <v>2.81</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>6.85</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AD11" t="n">
         <v>1.26</v>
@@ -1730,13 +1730,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="G12" t="n">
-        <v>3.7</v>
+        <v>3.74</v>
       </c>
       <c r="H12" t="n">
-        <v>3.35</v>
+        <v>3.56</v>
       </c>
       <c r="I12" t="n">
         <v>1.05</v>
@@ -1751,10 +1751,10 @@
         <v>3.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="N12" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
         <v>1.36</v>
@@ -1840,13 +1840,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="G13" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="H13" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I13" t="n">
         <v>1.03</v>
@@ -1861,10 +1861,10 @@
         <v>4.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="N13" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="O13" t="n">
         <v>1.29</v>
@@ -1953,10 +1953,10 @@
         <v>2.41</v>
       </c>
       <c r="G14" t="n">
-        <v>3.53</v>
+        <v>3.52</v>
       </c>
       <c r="H14" t="n">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="I14" t="n">
         <v>1.06</v>
@@ -1971,10 +1971,10 @@
         <v>3.3</v>
       </c>
       <c r="M14" t="n">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="N14" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="O14" t="n">
         <v>1.4</v>
@@ -2060,13 +2060,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="G15" t="n">
-        <v>3.45</v>
+        <v>3.58</v>
       </c>
       <c r="H15" t="n">
-        <v>2.45</v>
+        <v>2.51</v>
       </c>
       <c r="I15" t="n">
         <v>1.02</v>
@@ -2081,10 +2081,10 @@
         <v>3.4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="N15" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="O15" t="n">
         <v>1.39</v>
@@ -2170,13 +2170,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.75</v>
+        <v>3.54</v>
       </c>
       <c r="G16" t="n">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="H16" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="I16" t="n">
         <v>1.07</v>
@@ -2191,10 +2191,10 @@
         <v>3.2</v>
       </c>
       <c r="M16" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="N16" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="O16" t="n">
         <v>1.41</v>
@@ -2280,13 +2280,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="G17" t="n">
-        <v>2.65</v>
+        <v>2.79</v>
       </c>
       <c r="H17" t="n">
-        <v>2.9</v>
+        <v>3.08</v>
       </c>
       <c r="I17" t="n">
         <v>1.11</v>
@@ -2301,7 +2301,7 @@
         <v>2.43</v>
       </c>
       <c r="M17" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="N17" t="n">
         <v>1.43</v>
@@ -2390,13 +2390,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.35</v>
+        <v>3.22</v>
       </c>
       <c r="G18" t="n">
-        <v>3.35</v>
+        <v>3.44</v>
       </c>
       <c r="H18" t="n">
-        <v>2.08</v>
+        <v>2.13</v>
       </c>
       <c r="I18" t="n">
         <v>1.01</v>
@@ -2411,10 +2411,10 @@
         <v>3.72</v>
       </c>
       <c r="M18" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="N18" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -2453,13 +2453,13 @@
         <v>3.22</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AD18" t="n">
         <v>1.18</v>
@@ -2500,13 +2500,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.74</v>
+        <v>2.96</v>
       </c>
       <c r="G19" t="n">
-        <v>2.83</v>
+        <v>3.13</v>
       </c>
       <c r="H19" t="n">
-        <v>2.69</v>
+        <v>2.52</v>
       </c>
       <c r="I19" t="n">
         <v>1.1</v>
@@ -2521,10 +2521,10 @@
         <v>2.5</v>
       </c>
       <c r="M19" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N19" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="O19" t="n">
         <v>1.57</v>
@@ -2610,13 +2610,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="G20" t="n">
-        <v>3.15</v>
+        <v>3.36</v>
       </c>
       <c r="H20" t="n">
-        <v>2.54</v>
+        <v>2.4</v>
       </c>
       <c r="I20" t="n">
         <v>1.06</v>
@@ -2631,10 +2631,10 @@
         <v>3.1</v>
       </c>
       <c r="M20" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="N20" t="n">
-        <v>1.69</v>
+        <v>1.89</v>
       </c>
       <c r="O20" t="n">
         <v>1.44</v>
@@ -2700,111 +2700,111 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
         <v>44955.41666666666</v>
       </c>
       <c r="C21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>İstanbul Başakşehir</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.94</v>
+        <v>2.36</v>
       </c>
       <c r="G21" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>3.12</v>
       </c>
       <c r="I21" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="J21" t="n">
-        <v>9.699999999999999</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="L21" t="n">
-        <v>3.54</v>
+        <v>2.8</v>
       </c>
       <c r="M21" t="n">
-        <v>1.75</v>
+        <v>2.28</v>
       </c>
       <c r="N21" t="n">
-        <v>1.97</v>
+        <v>1.6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="P21" t="n">
-        <v>2.99</v>
+        <v>2.45</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R21" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="S21" t="n">
         <v>1.3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="U21" t="n">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="V21" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="W21" t="n">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>1.64</v>
+        <v>1.31</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.65</v>
+        <v>1.36</v>
       </c>
       <c r="Z21" t="n">
-        <v>3.29</v>
+        <v>2.67</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AB21" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AD21" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AG21" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="AH21" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="22">
@@ -2830,37 +2830,37 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="G22" t="n">
-        <v>3.4</v>
+        <v>3.68</v>
       </c>
       <c r="H22" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="M22" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="N22" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Q22" t="n">
         <v>1.57</v>
@@ -2869,13 +2869,13 @@
         <v>2.25</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="V22" t="n">
         <v>1.33</v>
@@ -2893,19 +2893,19 @@
         <v>2.81</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AF22" t="n">
         <v>1.64</v>
@@ -2914,7 +2914,7 @@
         <v>2.01</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="23">
@@ -2940,13 +2940,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="H23" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="I23" t="n">
         <v>1.02</v>
@@ -3050,13 +3050,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="G24" t="n">
-        <v>4.92</v>
+        <v>5.2</v>
       </c>
       <c r="H24" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="I24" t="n">
         <v>1.02</v>
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.41</v>
+        <v>2.42</v>
       </c>
       <c r="G25" t="n">
-        <v>3.5</v>
+        <v>3.54</v>
       </c>
       <c r="H25" t="n">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="I25" t="n">
         <v>1.04</v>
@@ -3181,10 +3181,10 @@
         <v>3.67</v>
       </c>
       <c r="M25" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="N25" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="O25" t="n">
         <v>1.31</v>
@@ -3270,13 +3270,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.23</v>
+        <v>3.22</v>
       </c>
       <c r="G26" t="n">
-        <v>3.28</v>
+        <v>3.34</v>
       </c>
       <c r="H26" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="I26" t="n">
         <v>1.02</v>
@@ -3291,10 +3291,10 @@
         <v>3.26</v>
       </c>
       <c r="M26" t="n">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="N26" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="O26" t="n">
         <v>1.4</v>
@@ -3380,13 +3380,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="G27" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H27" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="I27" t="n">
         <v>1.03</v>
@@ -3404,7 +3404,7 @@
         <v>1.8</v>
       </c>
       <c r="N27" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="O27" t="n">
         <v>1.33</v>
@@ -3452,7 +3452,7 @@
         <v>6.75</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE27" t="n">
         <v>1.29</v>
@@ -3490,25 +3490,25 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H28" t="n">
         <v>4.5</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="M28" t="n">
         <v>2.05</v>
@@ -3517,10 +3517,10 @@
         <v>1.75</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q28" t="n">
         <v>2.1</v>
@@ -3529,13 +3529,13 @@
         <v>1.67</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="V28" t="n">
         <v>2.11</v>
@@ -3553,28 +3553,28 @@
         <v>3.07</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="AB28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.05</v>
+        <v>3.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="29">
@@ -3600,13 +3600,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.31</v>
+        <v>2.46</v>
       </c>
       <c r="G29" t="n">
-        <v>3.33</v>
+        <v>3.62</v>
       </c>
       <c r="H29" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
         <v>1.05</v>
@@ -3621,10 +3621,10 @@
         <v>3.4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="N29" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="O29" t="n">
         <v>1.4</v>
@@ -3710,13 +3710,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.49</v>
+        <v>2.46</v>
       </c>
       <c r="G30" t="n">
-        <v>3.32</v>
+        <v>3.5</v>
       </c>
       <c r="H30" t="n">
-        <v>2.88</v>
+        <v>3.09</v>
       </c>
       <c r="I30" t="n">
         <v>1.07</v>
@@ -3731,10 +3731,10 @@
         <v>3.2</v>
       </c>
       <c r="M30" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="N30" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="O30" t="n">
         <v>1.44</v>
@@ -3820,13 +3820,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="G31" t="n">
-        <v>3.62</v>
+        <v>3.44</v>
       </c>
       <c r="H31" t="n">
-        <v>3.45</v>
+        <v>3.56</v>
       </c>
       <c r="I31" t="n">
         <v>1.05</v>
@@ -3841,10 +3841,10 @@
         <v>3.8</v>
       </c>
       <c r="M31" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="N31" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="O31" t="n">
         <v>1.33</v>
@@ -3930,13 +3930,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.97</v>
+        <v>2.15</v>
       </c>
       <c r="G32" t="n">
-        <v>3.82</v>
+        <v>3.62</v>
       </c>
       <c r="H32" t="n">
-        <v>3.57</v>
+        <v>3.62</v>
       </c>
       <c r="I32" t="n">
         <v>1.04</v>
@@ -3951,10 +3951,10 @@
         <v>3.6</v>
       </c>
       <c r="M32" t="n">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="N32" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="O32" t="n">
         <v>1.4</v>
@@ -4040,10 +4040,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G33" t="n">
-        <v>6.4</v>
+        <v>6.45</v>
       </c>
       <c r="H33" t="n">
         <v>11</v>
@@ -4150,13 +4150,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="G34" t="n">
-        <v>3.85</v>
+        <v>3.94</v>
       </c>
       <c r="H34" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I34" t="n">
         <v>1.03</v>
@@ -4171,10 +4171,10 @@
         <v>4.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="N34" t="n">
-        <v>2.23</v>
+        <v>2.33</v>
       </c>
       <c r="O34" t="n">
         <v>1.29</v>
@@ -4222,7 +4222,7 @@
         <v>4.65</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE34" t="n">
         <v>1.29</v>
@@ -4260,13 +4260,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="G35" t="n">
-        <v>3.95</v>
+        <v>4.04</v>
       </c>
       <c r="H35" t="n">
-        <v>4.8</v>
+        <v>4.54</v>
       </c>
       <c r="I35" t="n">
         <v>1.04</v>
@@ -4281,10 +4281,10 @@
         <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="N35" t="n">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="O35" t="n">
         <v>1.33</v>
@@ -4332,7 +4332,7 @@
         <v>3.65</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE35" t="n">
         <v>1.3</v>
@@ -4370,13 +4370,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="G36" t="n">
-        <v>4.42</v>
+        <v>4.22</v>
       </c>
       <c r="H36" t="n">
-        <v>6.85</v>
+        <v>5.95</v>
       </c>
       <c r="I36" t="n">
         <v>1.04</v>
@@ -4391,10 +4391,10 @@
         <v>3.75</v>
       </c>
       <c r="M36" t="n">
-        <v>1.84</v>
+        <v>2.06</v>
       </c>
       <c r="N36" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="O36" t="n">
         <v>1.36</v>
@@ -4480,13 +4480,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="G37" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H37" t="n">
-        <v>4.6</v>
+        <v>4.46</v>
       </c>
       <c r="I37" t="n">
         <v>1.07</v>
@@ -4501,10 +4501,10 @@
         <v>3.1</v>
       </c>
       <c r="M37" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="N37" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O37" t="n">
         <v>1.43</v>
@@ -4590,13 +4590,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="G38" t="n">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>3.64</v>
       </c>
       <c r="I38" t="n">
         <v>1.08</v>
@@ -4611,10 +4611,10 @@
         <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>2.19</v>
+        <v>2.07</v>
       </c>
       <c r="N38" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="O38" t="n">
         <v>1.44</v>
@@ -4700,13 +4700,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.05</v>
+        <v>2.81</v>
       </c>
       <c r="G39" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="H39" t="n">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="I39" t="n">
         <v>1.08</v>
@@ -4721,10 +4721,10 @@
         <v>2.75</v>
       </c>
       <c r="M39" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="N39" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="O39" t="n">
         <v>1.44</v>
@@ -4810,13 +4810,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="G40" t="n">
-        <v>5.6</v>
+        <v>4.94</v>
       </c>
       <c r="H40" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I40" t="n">
         <v>1.02</v>
@@ -4831,10 +4831,10 @@
         <v>4.33</v>
       </c>
       <c r="M40" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="N40" t="n">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="O40" t="n">
         <v>1.33</v>
@@ -4894,7 +4894,7 @@
         <v>3.3</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="41">
@@ -4920,13 +4920,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.97</v>
+        <v>2.92</v>
       </c>
       <c r="G41" t="n">
-        <v>3.65</v>
+        <v>3.64</v>
       </c>
       <c r="H41" t="n">
-        <v>2.28</v>
+        <v>2.51</v>
       </c>
       <c r="I41" t="n">
         <v>1.01</v>
@@ -4941,10 +4941,10 @@
         <v>3.72</v>
       </c>
       <c r="M41" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="N41" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="O41" t="n">
         <v>1.36</v>
@@ -5030,13 +5030,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.3</v>
+        <v>3.24</v>
       </c>
       <c r="G42" t="n">
-        <v>3.4</v>
+        <v>3.52</v>
       </c>
       <c r="H42" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="I42" t="n">
         <v>1.02</v>
@@ -5051,10 +5051,10 @@
         <v>3.4</v>
       </c>
       <c r="M42" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="N42" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="O42" t="n">
         <v>1.39</v>
@@ -5140,13 +5140,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="G43" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H43" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="I43" t="n">
         <v>1.02</v>
@@ -5161,10 +5161,10 @@
         <v>4.87</v>
       </c>
       <c r="M43" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="N43" t="n">
-        <v>2.35</v>
+        <v>2.29</v>
       </c>
       <c r="O43" t="n">
         <v>1.29</v>
@@ -5250,13 +5250,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="G44" t="n">
-        <v>3.8</v>
+        <v>4.02</v>
       </c>
       <c r="H44" t="n">
-        <v>6</v>
+        <v>6.41</v>
       </c>
       <c r="I44" t="n">
         <v>1.04</v>
@@ -5274,7 +5274,7 @@
         <v>1.86</v>
       </c>
       <c r="N44" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="O44" t="n">
         <v>1.38</v>
@@ -5470,13 +5470,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="G46" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H46" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="I46" t="n">
         <v>1.06</v>
@@ -5580,13 +5580,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="G47" t="n">
-        <v>3.25</v>
+        <v>3.74</v>
       </c>
       <c r="H47" t="n">
-        <v>4.97</v>
+        <v>5.9</v>
       </c>
       <c r="I47" t="n">
         <v>1.09</v>
@@ -5595,10 +5595,10 @@
         <v>6</v>
       </c>
       <c r="K47" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="L47" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="M47" t="n">
         <v>2.5</v>
@@ -5690,13 +5690,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
       <c r="G48" t="n">
-        <v>3.4</v>
+        <v>3.36</v>
       </c>
       <c r="H48" t="n">
-        <v>2.13</v>
+        <v>2.33</v>
       </c>
       <c r="I48" t="n">
         <v>1.09</v>
@@ -5711,10 +5711,10 @@
         <v>2.62</v>
       </c>
       <c r="M48" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="N48" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O48" t="n">
         <v>1.5</v>
@@ -5803,10 +5803,10 @@
         <v>1.91</v>
       </c>
       <c r="G49" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H49" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="I49" t="n">
         <v>1.07</v>
@@ -5824,7 +5824,7 @@
         <v>2.1</v>
       </c>
       <c r="N49" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="O49" t="n">
         <v>1.44</v>
@@ -5910,37 +5910,37 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G50" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="H50" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="M50" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="N50" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q50" t="n">
         <v>1.73</v>
@@ -5949,13 +5949,13 @@
         <v>2</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="V50" t="n">
         <v>1.11</v>
@@ -5973,19 +5973,19 @@
         <v>3</v>
       </c>
       <c r="AA50" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AB50" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AC50" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="AD50" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE50" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF50" t="n">
         <v>1.71</v>
@@ -5994,7 +5994,7 @@
         <v>2.12</v>
       </c>
       <c r="AH50" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="51">
@@ -6020,37 +6020,37 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="G51" t="n">
-        <v>3.4</v>
+        <v>3.54</v>
       </c>
       <c r="H51" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
         <v>1.68</v>
       </c>
       <c r="N51" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Q51" t="n">
         <v>1.62</v>
@@ -6059,13 +6059,13 @@
         <v>2.2</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="V51" t="n">
         <v>2.11</v>
@@ -6083,19 +6083,19 @@
         <v>3.36</v>
       </c>
       <c r="AA51" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="AB51" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AD51" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE51" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF51" t="n">
         <v>1.78</v>
@@ -6104,7 +6104,7 @@
         <v>2.22</v>
       </c>
       <c r="AH51" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="52">
@@ -6130,13 +6130,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="G52" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="H52" t="n">
-        <v>3.2</v>
+        <v>3.26</v>
       </c>
       <c r="I52" t="n">
         <v>1.05</v>
@@ -6151,10 +6151,10 @@
         <v>3.93</v>
       </c>
       <c r="M52" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="N52" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="O52" t="n">
         <v>1.36</v>
@@ -6240,13 +6240,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.43</v>
+        <v>2.39</v>
       </c>
       <c r="G53" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H53" t="n">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="I53" t="n">
         <v>1.02</v>
@@ -6261,10 +6261,10 @@
         <v>4.7</v>
       </c>
       <c r="M53" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="N53" t="n">
-        <v>2.14</v>
+        <v>2.35</v>
       </c>
       <c r="O53" t="n">
         <v>1.29</v>
@@ -6350,13 +6350,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="G54" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H54" t="n">
-        <v>3.45</v>
+        <v>3.38</v>
       </c>
       <c r="I54" t="n">
         <v>1.07</v>
@@ -6374,7 +6374,7 @@
         <v>2.15</v>
       </c>
       <c r="N54" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O54" t="n">
         <v>1.44</v>
@@ -6422,7 +6422,7 @@
         <v>2.66</v>
       </c>
       <c r="AD54" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE54" t="n">
         <v>1.27</v>
@@ -6460,13 +6460,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="G55" t="n">
-        <v>3.33</v>
+        <v>3.3</v>
       </c>
       <c r="H55" t="n">
-        <v>3.77</v>
+        <v>3.68</v>
       </c>
       <c r="I55" t="n">
         <v>1.09</v>
@@ -6481,10 +6481,10 @@
         <v>2.65</v>
       </c>
       <c r="M55" t="n">
-        <v>2.27</v>
+        <v>2.48</v>
       </c>
       <c r="N55" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="O55" t="n">
         <v>1.49</v>
@@ -6570,13 +6570,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="G56" t="n">
-        <v>3.55</v>
+        <v>3.54</v>
       </c>
       <c r="H56" t="n">
-        <v>4.1</v>
+        <v>3.86</v>
       </c>
       <c r="I56" t="n">
         <v>1.06</v>
@@ -6591,10 +6591,10 @@
         <v>3.4</v>
       </c>
       <c r="M56" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="N56" t="n">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="O56" t="n">
         <v>1.38</v>
@@ -6680,13 +6680,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.21</v>
+        <v>2.36</v>
       </c>
       <c r="G57" t="n">
-        <v>3.35</v>
+        <v>3.24</v>
       </c>
       <c r="H57" t="n">
-        <v>3.35</v>
+        <v>2.96</v>
       </c>
       <c r="I57" t="n">
         <v>1.04</v>
@@ -6701,10 +6701,10 @@
         <v>3.3</v>
       </c>
       <c r="M57" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="N57" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="O57" t="n">
         <v>1.44</v>
@@ -6790,13 +6790,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.77</v>
+        <v>2.78</v>
       </c>
       <c r="G58" t="n">
-        <v>3.4</v>
+        <v>3.54</v>
       </c>
       <c r="H58" t="n">
-        <v>2.47</v>
+        <v>2.43</v>
       </c>
       <c r="I58" t="n">
         <v>1.04</v>
@@ -6811,10 +6811,10 @@
         <v>3.67</v>
       </c>
       <c r="M58" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="N58" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="O58" t="n">
         <v>1.38</v>
@@ -6900,13 +6900,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>13.75</v>
+        <v>12.5</v>
       </c>
       <c r="G59" t="n">
-        <v>6.85</v>
+        <v>6.95</v>
       </c>
       <c r="H59" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="I59" t="n">
         <v>1.01</v>
@@ -7010,13 +7010,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="G60" t="n">
-        <v>5.15</v>
+        <v>5.4</v>
       </c>
       <c r="H60" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="I60" t="n">
         <v>1.02</v>
@@ -7100,337 +7100,337 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44955.54513888889</v>
+        <v>44955.54166666666</v>
       </c>
       <c r="C61" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Ajaccio</t>
+          <t>İstanbul Başakşehir</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Olympique Lyonnais</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4.02</v>
+        <v>1.89</v>
       </c>
       <c r="G61" t="n">
-        <v>3.73</v>
+        <v>3.5</v>
       </c>
       <c r="H61" t="n">
-        <v>1.88</v>
+        <v>3.85</v>
       </c>
       <c r="I61" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="J61" t="n">
-        <v>9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K61" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="L61" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S61" t="n">
         <v>1.3</v>
       </c>
-      <c r="L61" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M61" t="n">
+      <c r="T61" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U61" t="n">
         <v>1.9</v>
       </c>
-      <c r="N61" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O61" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P61" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R61" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S61" t="n">
-        <v>2</v>
-      </c>
-      <c r="T61" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="U61" t="n">
-        <v>1.2</v>
-      </c>
       <c r="V61" t="n">
-        <v>0.78</v>
+        <v>2.2</v>
       </c>
       <c r="W61" t="n">
-        <v>0.89</v>
+        <v>1.56</v>
       </c>
       <c r="X61" t="n">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="Y61" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="Z61" t="n">
-        <v>3.16</v>
+        <v>3.29</v>
       </c>
       <c r="AA61" t="n">
-        <v>2.65</v>
+        <v>1.67</v>
       </c>
       <c r="AB61" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC61" t="n">
-        <v>1.64</v>
+        <v>2.6</v>
       </c>
       <c r="AD61" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="AE61" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AF61" t="n">
         <v>2.05</v>
       </c>
       <c r="AG61" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="AH61" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Croatia Prva HNL</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44955.54861111111</v>
+        <v>44955.54513888889</v>
       </c>
       <c r="C62" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Istra 1961</t>
+          <t>Ajaccio</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Hajduk Split</t>
+          <t>Olympique Lyonnais</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>5.5</v>
+        <v>4.18</v>
       </c>
       <c r="G62" t="n">
-        <v>3.75</v>
+        <v>3.78</v>
       </c>
       <c r="H62" t="n">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="M62" t="n">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="N62" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q62" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S62" t="n">
         <v>2</v>
       </c>
-      <c r="R62" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S62" t="n">
-        <v>0</v>
-      </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U62" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V62" t="n">
-        <v>1.13</v>
+        <v>0.78</v>
       </c>
       <c r="W62" t="n">
-        <v>1.67</v>
+        <v>0.89</v>
       </c>
       <c r="X62" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="Y62" t="n">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="Z62" t="n">
-        <v>2.91</v>
+        <v>3.16</v>
       </c>
       <c r="AA62" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AB62" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC62" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AD62" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE62" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AF62" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AG62" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AH62" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Croatia Prva HNL</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44955.5625</v>
+        <v>44955.54861111111</v>
       </c>
       <c r="C63" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Istra 1961</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Hajduk Split</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.48</v>
+        <v>5</v>
       </c>
       <c r="G63" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H63" t="n">
-        <v>2.7</v>
+        <v>1.62</v>
       </c>
       <c r="I63" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="J63" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="K63" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="L63" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG63" t="n">
         <v>3.7</v>
       </c>
-      <c r="M63" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="N63" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O63" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P63" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R63" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S63" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="T63" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U63" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V63" t="n">
-        <v>1</v>
-      </c>
-      <c r="W63" t="n">
-        <v>1</v>
-      </c>
-      <c r="X63" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>1.81</v>
-      </c>
       <c r="AH63" t="n">
-        <v>2.29</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Germany Bundesliga</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
@@ -7441,480 +7441,480 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.27</v>
+        <v>2.44</v>
       </c>
       <c r="G64" t="n">
-        <v>4.07</v>
+        <v>3.52</v>
       </c>
       <c r="H64" t="n">
-        <v>2.74</v>
+        <v>2.73</v>
       </c>
       <c r="I64" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="J64" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K64" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="L64" t="n">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="M64" t="n">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
       <c r="N64" t="n">
-        <v>2.39</v>
+        <v>1.97</v>
       </c>
       <c r="O64" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P64" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="R64" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="S64" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="T64" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U64" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="V64" t="n">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="W64" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="X64" t="n">
-        <v>1.83</v>
+        <v>1.48</v>
       </c>
       <c r="Y64" t="n">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="Z64" t="n">
-        <v>3.66</v>
+        <v>3.16</v>
       </c>
       <c r="AA64" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AB64" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AC64" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AD64" t="n">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="AE64" t="n">
-        <v>1.55</v>
+        <v>1.24</v>
       </c>
       <c r="AF64" t="n">
-        <v>1.85</v>
+        <v>1.47</v>
       </c>
       <c r="AG64" t="n">
-        <v>2.3</v>
+        <v>1.81</v>
       </c>
       <c r="AH64" t="n">
-        <v>3</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Czech Republic First League</t>
+          <t>Germany Bundesliga</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44955.58333333334</v>
+        <v>44955.5625</v>
       </c>
       <c r="C65" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Zlín</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Baník Ostrava</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="G65" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J65" t="n">
+        <v>12</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P65" t="n">
         <v>3.5</v>
       </c>
-      <c r="H65" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="J65" t="n">
-        <v>10</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="L65" t="n">
-        <v>4</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="N65" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="O65" t="n">
+      <c r="Q65" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W65" t="n">
         <v>1.33</v>
       </c>
-      <c r="P65" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R65" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S65" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T65" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U65" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V65" t="n">
-        <v>1</v>
-      </c>
-      <c r="W65" t="n">
-        <v>0.71</v>
-      </c>
       <c r="X65" t="n">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="Y65" t="n">
-        <v>1.51</v>
+        <v>1.83</v>
       </c>
       <c r="Z65" t="n">
-        <v>3.15</v>
+        <v>3.66</v>
       </c>
       <c r="AA65" t="n">
-        <v>2.25</v>
+        <v>1.98</v>
       </c>
       <c r="AB65" t="n">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="AC65" t="n">
-        <v>1.76</v>
+        <v>2.18</v>
       </c>
       <c r="AD65" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE65" t="n">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AF65" t="n">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="AG65" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AH65" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>Czech Republic First League</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
         <v>44955.58333333334</v>
       </c>
       <c r="C66" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Zlín</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Baník Ostrava</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.25</v>
+        <v>2.86</v>
       </c>
       <c r="G66" t="n">
-        <v>3.03</v>
+        <v>3.6</v>
       </c>
       <c r="H66" t="n">
-        <v>3.63</v>
+        <v>2.29</v>
       </c>
       <c r="I66" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="J66" t="n">
         <v>10</v>
       </c>
       <c r="K66" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="L66" t="n">
+        <v>4</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="O66" t="n">
         <v>1.33</v>
       </c>
-      <c r="L66" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="N66" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="O66" t="n">
-        <v>1.4</v>
-      </c>
       <c r="P66" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="R66" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AG66" t="n">
         <v>2</v>
       </c>
-      <c r="S66" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T66" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="U66" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V66" t="n">
-        <v>2</v>
-      </c>
-      <c r="W66" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="X66" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>2.7</v>
-      </c>
       <c r="AH66" t="n">
-        <v>3.65</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
         <v>44955.58333333334</v>
       </c>
       <c r="C67" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>SSC Farul</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.11</v>
+        <v>2.3</v>
       </c>
       <c r="G67" t="n">
-        <v>3.15</v>
+        <v>3.24</v>
       </c>
       <c r="H67" t="n">
-        <v>3.45</v>
+        <v>3.66</v>
       </c>
       <c r="I67" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="J67" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K67" t="n">
         <v>1.33</v>
       </c>
       <c r="L67" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M67" t="n">
-        <v>2.16</v>
+        <v>1.97</v>
       </c>
       <c r="N67" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="O67" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="P67" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R67" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S67" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="T67" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="U67" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="V67" t="n">
         <v>2</v>
       </c>
       <c r="W67" t="n">
-        <v>1.73</v>
+        <v>0.89</v>
       </c>
       <c r="X67" t="n">
-        <v>2.06</v>
+        <v>1.53</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="Z67" t="n">
-        <v>3.61</v>
+        <v>3.14</v>
       </c>
       <c r="AA67" t="n">
-        <v>1.44</v>
+        <v>1.82</v>
       </c>
       <c r="AB67" t="n">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="AC67" t="n">
-        <v>3.15</v>
+        <v>2.3</v>
       </c>
       <c r="AD67" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="AE67" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="AF67" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="AG67" t="n">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="AH67" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
         <v>44955.58333333334</v>
       </c>
       <c r="C68" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>SSC Farul</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.94</v>
+        <v>2.26</v>
       </c>
       <c r="G68" t="n">
-        <v>3.15</v>
+        <v>3.24</v>
       </c>
       <c r="H68" t="n">
-        <v>3.75</v>
+        <v>3.18</v>
       </c>
       <c r="I68" t="n">
         <v>1.05</v>
       </c>
       <c r="J68" t="n">
-        <v>9.75</v>
+        <v>8</v>
       </c>
       <c r="K68" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="L68" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="M68" t="n">
-        <v>1.97</v>
+        <v>2.2</v>
       </c>
       <c r="N68" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="O68" t="n">
         <v>1.43</v>
@@ -7923,278 +7923,278 @@
         <v>2.65</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R68" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S68" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="T68" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U68" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V68" t="n">
         <v>2</v>
       </c>
       <c r="W68" t="n">
-        <v>2.43</v>
+        <v>1.73</v>
       </c>
       <c r="X68" t="n">
-        <v>1.45</v>
+        <v>2.06</v>
       </c>
       <c r="Y68" t="n">
-        <v>1.29</v>
+        <v>1.55</v>
       </c>
       <c r="Z68" t="n">
-        <v>2.74</v>
+        <v>3.61</v>
       </c>
       <c r="AA68" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="AB68" t="n">
-        <v>8</v>
+        <v>5.75</v>
       </c>
       <c r="AC68" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="AD68" t="n">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AE68" t="n">
-        <v>1.51</v>
+        <v>1.66</v>
       </c>
       <c r="AF68" t="n">
-        <v>1.85</v>
+        <v>2.18</v>
       </c>
       <c r="AG68" t="n">
-        <v>2.29</v>
+        <v>2.95</v>
       </c>
       <c r="AH68" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44955.60416666666</v>
+        <v>44955.58333333334</v>
       </c>
       <c r="C69" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Zulte-Waregem</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Coca-Cola</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>4.52</v>
+        <v>2.04</v>
       </c>
       <c r="G69" t="n">
-        <v>3.82</v>
+        <v>3.32</v>
       </c>
       <c r="H69" t="n">
-        <v>1.73</v>
+        <v>3.94</v>
       </c>
       <c r="I69" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="J69" t="n">
-        <v>13</v>
+        <v>9.75</v>
       </c>
       <c r="K69" t="n">
-        <v>1.14</v>
+        <v>1.34</v>
       </c>
       <c r="L69" t="n">
-        <v>4.6</v>
+        <v>3.05</v>
       </c>
       <c r="M69" t="n">
-        <v>1.57</v>
+        <v>2.01</v>
       </c>
       <c r="N69" t="n">
-        <v>2.25</v>
+        <v>1.76</v>
       </c>
       <c r="O69" t="n">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="P69" t="n">
-        <v>3.5</v>
+        <v>2.65</v>
       </c>
       <c r="Q69" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U69" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V69" t="n">
+        <v>2</v>
+      </c>
+      <c r="W69" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="X69" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AA69" t="n">
         <v>1.62</v>
       </c>
-      <c r="R69" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S69" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T69" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U69" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V69" t="n">
-        <v>1</v>
-      </c>
-      <c r="W69" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X69" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>2.88</v>
-      </c>
       <c r="AB69" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC69" t="n">
-        <v>1.58</v>
+        <v>2.82</v>
       </c>
       <c r="AD69" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AE69" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AF69" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="AG69" t="n">
-        <v>2.1</v>
+        <v>2.29</v>
       </c>
       <c r="AH69" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
         <v>44955.60416666666</v>
       </c>
       <c r="C70" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Albacete Balompié</t>
+          <t>Zulte-Waregem</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>CD Lugo</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.83</v>
+        <v>4.18</v>
       </c>
       <c r="G70" t="n">
-        <v>3.57</v>
+        <v>4.08</v>
       </c>
       <c r="H70" t="n">
-        <v>3.8</v>
+        <v>1.77</v>
       </c>
       <c r="I70" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="J70" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K70" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="L70" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U70" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>1</v>
+      </c>
+      <c r="W70" t="n">
         <v>1.4</v>
       </c>
-      <c r="L70" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M70" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="N70" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="O70" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P70" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R70" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S70" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T70" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U70" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V70" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W70" t="n">
-        <v>0.67</v>
-      </c>
       <c r="X70" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="Y70" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="Z70" t="n">
-        <v>2.8</v>
+        <v>2.89</v>
       </c>
       <c r="AA70" t="n">
-        <v>1.32</v>
+        <v>2.88</v>
       </c>
       <c r="AB70" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AC70" t="n">
-        <v>4</v>
+        <v>1.58</v>
       </c>
       <c r="AD70" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="AE70" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="AF70" t="n">
-        <v>2.06</v>
+        <v>1.73</v>
       </c>
       <c r="AG70" t="n">
-        <v>2.72</v>
+        <v>2.1</v>
       </c>
       <c r="AH70" t="n">
-        <v>3.74</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="71">
@@ -8211,46 +8211,46 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Sporting Gijón</t>
+          <t>Albacete Balompié</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Málaga CF</t>
+          <t>CD Lugo</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="G71" t="n">
-        <v>3.18</v>
+        <v>3.52</v>
       </c>
       <c r="H71" t="n">
-        <v>4.8</v>
+        <v>4.48</v>
       </c>
       <c r="I71" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="J71" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="K71" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="L71" t="n">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="M71" t="n">
-        <v>2.43</v>
+        <v>2.28</v>
       </c>
       <c r="N71" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="O71" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="P71" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q71" t="n">
         <v>2.2</v>
@@ -8259,84 +8259,84 @@
         <v>1.62</v>
       </c>
       <c r="S71" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="T71" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U71" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="V71" t="n">
         <v>1.67</v>
       </c>
       <c r="W71" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="X71" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="Y71" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="Z71" t="n">
-        <v>2.94</v>
+        <v>2.8</v>
       </c>
       <c r="AA71" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="AB71" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="AC71" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="AD71" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AE71" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AF71" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AG71" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="AH71" t="n">
-        <v>3.96</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
         <v>44955.60416666666</v>
       </c>
       <c r="C72" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Celta de Vigo</t>
+          <t>Sporting Gijón</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Athletic Club Bilbao</t>
+          <t>Málaga CF</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3.22</v>
+        <v>1.96</v>
       </c>
       <c r="G72" t="n">
-        <v>2.98</v>
+        <v>3.24</v>
       </c>
       <c r="H72" t="n">
-        <v>2.48</v>
+        <v>4.26</v>
       </c>
       <c r="I72" t="n">
         <v>1.09</v>
@@ -8345,302 +8345,302 @@
         <v>7.5</v>
       </c>
       <c r="K72" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="L72" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="M72" t="n">
-        <v>2.25</v>
+        <v>2.43</v>
       </c>
       <c r="N72" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="O72" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P72" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="Q72" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="R72" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="S72" t="n">
-        <v>1.51</v>
+        <v>1.24</v>
       </c>
       <c r="T72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V72" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X72" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AA72" t="n">
         <v>1.4</v>
       </c>
-      <c r="U72" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="V72" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W72" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X72" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>2.02</v>
-      </c>
       <c r="AB72" t="n">
-        <v>7.5</v>
+        <v>6.25</v>
       </c>
       <c r="AC72" t="n">
-        <v>2.02</v>
+        <v>3.35</v>
       </c>
       <c r="AD72" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AE72" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AF72" t="n">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="AG72" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="AH72" t="n">
-        <v>3.6</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
         <v>44955.60416666666</v>
       </c>
       <c r="C73" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Celta de Vigo</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Athletic Club Bilbao</t>
         </is>
       </c>
       <c r="F73" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="G73" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="J73" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U73" t="n">
         <v>1.46</v>
       </c>
-      <c r="G73" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H73" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="J73" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="K73" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M73" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="N73" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O73" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P73" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R73" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S73" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="T73" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U73" t="n">
-        <v>2.6</v>
-      </c>
       <c r="V73" t="n">
-        <v>2.67</v>
+        <v>1.11</v>
       </c>
       <c r="W73" t="n">
-        <v>0.89</v>
+        <v>1.13</v>
       </c>
       <c r="X73" t="n">
-        <v>2.35</v>
+        <v>1.69</v>
       </c>
       <c r="Y73" t="n">
-        <v>1.37</v>
+        <v>1.69</v>
       </c>
       <c r="Z73" t="n">
-        <v>3.72</v>
+        <v>3.38</v>
       </c>
       <c r="AA73" t="n">
-        <v>1.21</v>
+        <v>2.02</v>
       </c>
       <c r="AB73" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC73" t="n">
-        <v>5.25</v>
+        <v>2.02</v>
       </c>
       <c r="AD73" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AE73" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AF73" t="n">
-        <v>2.05</v>
+        <v>2.13</v>
       </c>
       <c r="AG73" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="AH73" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Portugal Liga NOS</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>44955.625</v>
+        <v>44955.60416666666</v>
       </c>
       <c r="C74" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Boavista FC</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.37</v>
+        <v>1.48</v>
       </c>
       <c r="G74" t="n">
-        <v>3.22</v>
+        <v>3.94</v>
       </c>
       <c r="H74" t="n">
-        <v>3.15</v>
+        <v>7.8</v>
       </c>
       <c r="I74" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="J74" t="n">
         <v>8.5</v>
       </c>
       <c r="K74" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L74" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="O74" t="n">
         <v>1.44</v>
       </c>
-      <c r="L74" t="n">
+      <c r="P74" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V74" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AG74" t="n">
         <v>2.8</v>
       </c>
-      <c r="M74" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="N74" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="O74" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P74" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R74" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="S74" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T74" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U74" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V74" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W74" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X74" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>2.05</v>
-      </c>
       <c r="AH74" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Portugal Liga NOS</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
@@ -8651,326 +8651,326 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Leixões</t>
+          <t>Boavista FC</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>FC Penafiel</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.85</v>
+        <v>2.37</v>
       </c>
       <c r="G75" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H75" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="I75" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="J75" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="K75" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="L75" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="M75" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="N75" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="O75" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P75" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="Q75" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R75" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="S75" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="T75" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U75" t="n">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="V75" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X75" t="n">
         <v>1.38</v>
       </c>
-      <c r="W75" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X75" t="n">
-        <v>1.46</v>
-      </c>
       <c r="Y75" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="Z75" t="n">
         <v>2.63</v>
       </c>
       <c r="AA75" t="n">
-        <v>2</v>
+        <v>1.46</v>
       </c>
       <c r="AB75" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AC75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD75" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AE75" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AF75" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AG75" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="AH75" t="n">
-        <v>2.32</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Belgium First Division B</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44955.66666666666</v>
+        <v>44955.625</v>
       </c>
       <c r="C76" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Standard Liège II</t>
+          <t>Leixões</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Waasland-Beveren</t>
+          <t>FC Penafiel</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="G76" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="H76" t="n">
-        <v>1.57</v>
+        <v>2.6</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="M76" t="n">
-        <v>1.45</v>
+        <v>2.4</v>
       </c>
       <c r="N76" t="n">
-        <v>2.38</v>
+        <v>1.54</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R76" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S76" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="T76" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U76" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V76" t="n">
-        <v>0.67</v>
+        <v>1.38</v>
       </c>
       <c r="W76" t="n">
         <v>1.67</v>
       </c>
       <c r="X76" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.78</v>
+        <v>1.17</v>
       </c>
       <c r="Z76" t="n">
-        <v>3.27</v>
+        <v>2.63</v>
       </c>
       <c r="AA76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB76" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AC76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD76" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AE76" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF76" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AG76" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH76" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>Belgium First Division B</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>44955.69791666666</v>
+        <v>44955.66666666666</v>
       </c>
       <c r="C77" t="n">
         <v>20</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>PSG</t>
+          <t>Standard Liège II</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Waasland-Beveren</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.26</v>
+        <v>5.75</v>
       </c>
       <c r="G77" t="n">
-        <v>6.65</v>
+        <v>4.25</v>
       </c>
       <c r="H77" t="n">
-        <v>9.699999999999999</v>
+        <v>1.46</v>
       </c>
       <c r="I77" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="N77" t="n">
-        <v>2.84</v>
+        <v>2.38</v>
       </c>
       <c r="O77" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="R77" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="S77" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="U77" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V77" t="n">
-        <v>2.78</v>
+        <v>0.67</v>
       </c>
       <c r="W77" t="n">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="X77" t="n">
-        <v>2.08</v>
+        <v>1.49</v>
       </c>
       <c r="Y77" t="n">
-        <v>1.39</v>
+        <v>1.78</v>
       </c>
       <c r="Z77" t="n">
-        <v>3.47</v>
+        <v>3.27</v>
       </c>
       <c r="AA77" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AB77" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC77" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="AD77" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AE77" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AF77" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AG77" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="AH77" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="B78" s="2" t="n">
@@ -8981,543 +8981,545 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>PSG</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="G78" t="n">
-        <v>4.17</v>
+        <v>7.1</v>
       </c>
       <c r="H78" t="n">
-        <v>5.55</v>
+        <v>12.5</v>
       </c>
       <c r="I78" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J78" t="n">
+        <v>17</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="L78" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S78" t="n">
         <v>1.05</v>
       </c>
-      <c r="J78" t="n">
-        <v>11</v>
-      </c>
-      <c r="K78" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L78" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="N78" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="O78" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P78" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R78" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S78" t="n">
-        <v>1.19</v>
-      </c>
       <c r="T78" t="n">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="U78" t="n">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="V78" t="n">
         <v>2.78</v>
       </c>
       <c r="W78" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="X78" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="Y78" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="Z78" t="n">
-        <v>3.73</v>
+        <v>3.47</v>
       </c>
       <c r="AA78" t="n">
-        <v>1.55</v>
+        <v>1.22</v>
       </c>
       <c r="AB78" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AC78" t="n">
-        <v>2.95</v>
+        <v>5.8</v>
       </c>
       <c r="AD78" t="n">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="AE78" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="AF78" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AG78" t="n">
-        <v>2.55</v>
+        <v>2.08</v>
       </c>
       <c r="AH78" t="n">
-        <v>3.4</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>44955.70833333334</v>
+        <v>44955.69791666666</v>
       </c>
       <c r="C79" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>KRC Genk</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>RFC Seraing</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.22</v>
+        <v>1.77</v>
       </c>
       <c r="G79" t="n">
-        <v>6.2</v>
+        <v>3.92</v>
       </c>
       <c r="H79" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J79" t="n">
         <v>11</v>
       </c>
-      <c r="I79" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J79" t="n">
-        <v>15</v>
-      </c>
       <c r="K79" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="L79" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="M79" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O79" t="n">
         <v>1.4</v>
       </c>
-      <c r="N79" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="O79" t="n">
-        <v>1.24</v>
-      </c>
       <c r="P79" t="n">
-        <v>3.88</v>
+        <v>2.75</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="R79" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S79" t="n">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="T79" t="n">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="U79" t="n">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="V79" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="W79" t="n">
-        <v>1.18</v>
+        <v>2.1</v>
       </c>
       <c r="X79" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.99</v>
+        <v>1.45</v>
       </c>
       <c r="Z79" t="n">
-        <v>3.05</v>
+        <v>3.73</v>
       </c>
       <c r="AA79" t="n">
-        <v>1.11</v>
+        <v>1.55</v>
       </c>
       <c r="AB79" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AC79" t="n">
-        <v>8.5</v>
+        <v>2.95</v>
       </c>
       <c r="AD79" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AE79" t="n">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="AF79" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AG79" t="n">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="AH79" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="B80" s="2" t="n">
         <v>44955.70833333334</v>
       </c>
       <c r="C80" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>UD Ibiza</t>
+          <t>KRC Genk</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>FC Cartagena</t>
+          <t>RFC Seraing</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.87</v>
+        <v>1.24</v>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>6.45</v>
       </c>
       <c r="H80" t="n">
-        <v>2.45</v>
+        <v>11.5</v>
       </c>
       <c r="I80" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="J80" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K80" t="n">
-        <v>1.48</v>
+        <v>1.11</v>
       </c>
       <c r="L80" t="n">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="M80" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="N80" t="n">
-        <v>1.5</v>
+        <v>2.59</v>
       </c>
       <c r="O80" t="n">
-        <v>1.55</v>
+        <v>1.24</v>
       </c>
       <c r="P80" t="n">
-        <v>2.3</v>
+        <v>3.88</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="R80" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U80" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF80" t="n">
         <v>1.67</v>
       </c>
-      <c r="S80" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T80" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="U80" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="V80" t="n">
-        <v>1</v>
-      </c>
-      <c r="W80" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X80" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AF80" t="n">
+      <c r="AG80" t="n">
         <v>2.05</v>
       </c>
-      <c r="AG80" t="n">
-        <v>2.69</v>
-      </c>
       <c r="AH80" t="n">
-        <v>3.74</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B81" s="2" t="n">
         <v>44955.70833333334</v>
       </c>
       <c r="C81" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>FC Cartagena</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.58</v>
+        <v>2.6</v>
       </c>
       <c r="G81" t="n">
-        <v>4.18</v>
+        <v>3.13</v>
       </c>
       <c r="H81" t="n">
-        <v>5.6</v>
+        <v>2.84</v>
       </c>
       <c r="I81" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="J81" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K81" t="n">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="L81" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="M81" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="N81" t="n">
-        <v>1.97</v>
+        <v>1.5</v>
       </c>
       <c r="O81" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="V81" t="n">
+        <v>1</v>
+      </c>
+      <c r="W81" t="n">
         <v>1.36</v>
       </c>
-      <c r="P81" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R81" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S81" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="T81" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U81" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V81" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="W81" t="n">
-        <v>2.33</v>
-      </c>
       <c r="X81" t="n">
-        <v>2.19</v>
+        <v>1.31</v>
       </c>
       <c r="Y81" t="n">
-        <v>1.75</v>
+        <v>1.24</v>
       </c>
       <c r="Z81" t="n">
-        <v>3.94</v>
+        <v>2.55</v>
       </c>
       <c r="AA81" t="n">
-        <v>1.47</v>
+        <v>1.83</v>
       </c>
       <c r="AB81" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="AC81" t="n">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="AD81" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AE81" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="AF81" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AG81" t="n">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="AH81" t="n">
-        <v>3.65</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>8595</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
       </c>
       <c r="B82" s="2" t="n">
         <v>44955.70833333334</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Newell's Old Boys</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="G82" t="n">
-        <v>2.87</v>
+        <v>3.98</v>
       </c>
       <c r="H82" t="n">
-        <v>3.07</v>
+        <v>5.15</v>
       </c>
       <c r="I82" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="J82" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="K82" t="n">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="L82" t="n">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="M82" t="n">
-        <v>2.44</v>
+        <v>1.95</v>
       </c>
       <c r="N82" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="W82" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="X82" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AA82" t="n">
         <v>1.47</v>
       </c>
-      <c r="O82" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P82" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R82" t="n">
+      <c r="AB82" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AE82" t="n">
         <v>1.7</v>
       </c>
-      <c r="S82" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T82" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="U82" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V82" t="n">
-        <v>0</v>
-      </c>
-      <c r="W82" t="n">
-        <v>0</v>
-      </c>
-      <c r="X82" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y82" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA82" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AB82" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC82" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AD82" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AE82" t="n">
-        <v>1.48</v>
-      </c>
       <c r="AF82" t="n">
-        <v>1.87</v>
+        <v>2.11</v>
       </c>
       <c r="AG82" t="n">
-        <v>2.39</v>
+        <v>2.7</v>
       </c>
       <c r="AH82" t="n">
-        <v>3.28</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>8783</v>
+        <v>8595</v>
       </c>
       <c r="B83" s="2" t="n">
         <v>44955.70833333334</v>
@@ -9527,428 +9529,428 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Resistencia</t>
+          <t>Newell's Old Boys</t>
         </is>
       </c>
       <c r="F83" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="H83" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="J83" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="O83" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U83" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA83" t="n">
         <v>1.9</v>
       </c>
-      <c r="G83" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H83" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="N83" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>0</v>
-      </c>
-      <c r="R83" t="n">
-        <v>0</v>
-      </c>
-      <c r="S83" t="n">
-        <v>0</v>
-      </c>
-      <c r="T83" t="n">
-        <v>0</v>
-      </c>
-      <c r="U83" t="n">
-        <v>0</v>
-      </c>
-      <c r="V83" t="n">
-        <v>0</v>
-      </c>
-      <c r="W83" t="n">
-        <v>0</v>
-      </c>
-      <c r="X83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA83" t="n">
-        <v>0</v>
-      </c>
       <c r="AB83" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC83" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AD83" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE83" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF83" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AG83" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AH83" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Portugal Liga NOS</t>
-        </is>
+      <c r="A84" t="n">
+        <v>8783</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>44955.72916666666</v>
+        <v>44955.70833333334</v>
       </c>
       <c r="C84" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Famalicão</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>GD Estoril Praia</t>
+          <t>Resistencia</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2.22</v>
+        <v>1.73</v>
       </c>
       <c r="G84" t="n">
-        <v>3.33</v>
+        <v>3.82</v>
       </c>
       <c r="H84" t="n">
-        <v>3.33</v>
+        <v>4.8</v>
       </c>
       <c r="I84" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="N84" t="n">
-        <v>1.62</v>
+        <v>1.92</v>
       </c>
       <c r="O84" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="R84" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="U84" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="V84" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="W84" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="X84" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="Y84" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="Z84" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="AA84" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AB84" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="AC84" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="AD84" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AE84" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AF84" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AG84" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AH84" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Chile Primera División</t>
+          <t>Portugal Liga NOS</t>
         </is>
       </c>
       <c r="B85" s="2" t="n">
-        <v>44955.75</v>
+        <v>44955.72916666666</v>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>Famalicão</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Colo-Colo</t>
+          <t>GD Estoril Praia</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3.4</v>
+        <v>2.23</v>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H85" t="n">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="I85" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="J85" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="K85" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="L85" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M85" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N85" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="O85" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P85" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R85" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S85" t="n">
-        <v>1.7</v>
+        <v>1.29</v>
       </c>
       <c r="T85" t="n">
         <v>1.32</v>
       </c>
       <c r="U85" t="n">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="V85" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="W85" t="n">
-        <v>3</v>
+        <v>1.22</v>
       </c>
       <c r="X85" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="Y85" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="Z85" t="n">
-        <v>1.55</v>
+        <v>2.72</v>
       </c>
       <c r="AA85" t="n">
-        <v>2.45</v>
+        <v>1.44</v>
       </c>
       <c r="AB85" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="AC85" t="n">
-        <v>1.66</v>
+        <v>3.05</v>
       </c>
       <c r="AD85" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AE85" t="n">
-        <v>1.53</v>
+        <v>1.31</v>
       </c>
       <c r="AF85" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AG85" t="n">
-        <v>2.55</v>
+        <v>1.98</v>
       </c>
       <c r="AH85" t="n">
-        <v>3.5</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>8595</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
       </c>
       <c r="B86" s="2" t="n">
-        <v>44955.80208333334</v>
+        <v>44955.75</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Colo-Colo</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="G86" t="n">
-        <v>3.52</v>
+        <v>3</v>
       </c>
       <c r="H86" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="J86" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L86" t="n">
+        <v>3</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P86" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U86" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="n">
+        <v>3</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AB86" t="n">
         <v>5.5</v>
       </c>
-      <c r="I86" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="J86" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K86" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="M86" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="N86" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="O86" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P86" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R86" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S86" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="T86" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="U86" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V86" t="n">
-        <v>0</v>
-      </c>
-      <c r="W86" t="n">
-        <v>0</v>
-      </c>
-      <c r="X86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AB86" t="n">
-        <v>8</v>
-      </c>
       <c r="AC86" t="n">
-        <v>4</v>
+        <v>1.66</v>
       </c>
       <c r="AD86" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AE86" t="n">
         <v>1.53</v>
       </c>
       <c r="AF86" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AG86" t="n">
-        <v>2.46</v>
+        <v>2.55</v>
       </c>
       <c r="AH86" t="n">
-        <v>3.34</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="87">
@@ -9963,34 +9965,34 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Colón</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Lanús</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="G87" t="n">
-        <v>2.96</v>
+        <v>3.52</v>
       </c>
       <c r="H87" t="n">
-        <v>2.97</v>
+        <v>5.5</v>
       </c>
       <c r="I87" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="J87" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="K87" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="L87" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M87" t="n">
         <v>2.2</v>
@@ -10005,19 +10007,19 @@
         <v>2.5</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="R87" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="S87" t="n">
-        <v>1.35</v>
+        <v>1.14</v>
       </c>
       <c r="T87" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="U87" t="n">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="V87" t="n">
         <v>0</v>
@@ -10035,28 +10037,28 @@
         <v>0</v>
       </c>
       <c r="AA87" t="n">
-        <v>1.82</v>
+        <v>1.36</v>
       </c>
       <c r="AB87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC87" t="n">
-        <v>2.43</v>
+        <v>4</v>
       </c>
       <c r="AD87" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AE87" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AF87" t="n">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="AG87" t="n">
-        <v>2.65</v>
+        <v>2.46</v>
       </c>
       <c r="AH87" t="n">
-        <v>3.64</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="88">
@@ -10071,169 +10073,169 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Colón</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Sarmiento</t>
+          <t>Lanús</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="G88" t="n">
-        <v>2.93</v>
+        <v>2.96</v>
       </c>
       <c r="H88" t="n">
-        <v>3.27</v>
+        <v>2.97</v>
       </c>
       <c r="I88" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="J88" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="L88" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N88" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P88" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U88" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AB88" t="n">
         <v>7</v>
       </c>
-      <c r="K88" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="M88" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="N88" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="O88" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P88" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R88" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S88" t="n">
+      <c r="AC88" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AD88" t="n">
         <v>1.31</v>
       </c>
-      <c r="T88" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="U88" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V88" t="n">
-        <v>0</v>
-      </c>
-      <c r="W88" t="n">
-        <v>0</v>
-      </c>
-      <c r="X88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA88" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AB88" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AC88" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AD88" t="n">
-        <v>1.25</v>
-      </c>
       <c r="AE88" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="AF88" t="n">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="AG88" t="n">
-        <v>2.34</v>
+        <v>2.65</v>
       </c>
       <c r="AH88" t="n">
-        <v>3.08</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>8783</v>
+        <v>8595</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>44955.8125</v>
+        <v>44955.80208333334</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Cerro Porteño</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Sportivo Ameliano</t>
+          <t>Sarmiento</t>
         </is>
       </c>
       <c r="F89" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="H89" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="J89" t="n">
+        <v>7</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="N89" t="n">
         <v>1.49</v>
       </c>
-      <c r="G89" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="H89" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0</v>
-      </c>
-      <c r="M89" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="N89" t="n">
-        <v>1.92</v>
-      </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P89" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S89" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="T89" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="U89" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="V89" t="n">
         <v>0</v>
@@ -10251,137 +10253,245 @@
         <v>0</v>
       </c>
       <c r="AA89" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AB89" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC89" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AD89" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE89" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF89" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AG89" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AH89" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" t="n">
+        <v>8783</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>44955.8125</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G90" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="H90" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>Chile Primera División</t>
         </is>
       </c>
-      <c r="B90" s="2" t="n">
+      <c r="B91" s="2" t="n">
         <v>44955.85416666666</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C91" t="n">
         <v>2</v>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>Audax Italiano</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>Copiapó</t>
         </is>
       </c>
-      <c r="F90" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G90" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="I90" t="n">
+      <c r="F91" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G91" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H91" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I91" t="n">
         <v>1.05</v>
       </c>
-      <c r="J90" t="n">
+      <c r="J91" t="n">
         <v>9.75</v>
       </c>
-      <c r="K90" t="n">
+      <c r="K91" t="n">
         <v>1.28</v>
       </c>
-      <c r="L90" t="n">
+      <c r="L91" t="n">
         <v>3.3</v>
       </c>
-      <c r="M90" t="n">
+      <c r="M91" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="N91" t="n">
         <v>1.85</v>
       </c>
-      <c r="N90" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O90" t="n">
+      <c r="O91" t="n">
         <v>1.38</v>
       </c>
-      <c r="P90" t="n">
+      <c r="P91" t="n">
         <v>2.91</v>
       </c>
-      <c r="Q90" t="n">
+      <c r="Q91" t="n">
         <v>1.86</v>
       </c>
-      <c r="R90" t="n">
+      <c r="R91" t="n">
         <v>1.91</v>
       </c>
-      <c r="S90" t="n">
+      <c r="S91" t="n">
         <v>1.19</v>
       </c>
-      <c r="T90" t="n">
+      <c r="T91" t="n">
         <v>1.23</v>
       </c>
-      <c r="U90" t="n">
+      <c r="U91" t="n">
         <v>1.78</v>
       </c>
-      <c r="V90" t="n">
-        <v>0</v>
-      </c>
-      <c r="W90" t="n">
-        <v>0</v>
-      </c>
-      <c r="X90" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y90" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA90" t="n">
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA91" t="n">
         <v>1.38</v>
       </c>
-      <c r="AB90" t="n">
+      <c r="AB91" t="n">
         <v>6</v>
       </c>
-      <c r="AC90" t="n">
+      <c r="AC91" t="n">
         <v>3.45</v>
       </c>
-      <c r="AD90" t="n">
+      <c r="AD91" t="n">
         <v>1.29</v>
       </c>
-      <c r="AE90" t="n">
+      <c r="AE91" t="n">
         <v>1.53</v>
       </c>
-      <c r="AF90" t="n">
+      <c r="AF91" t="n">
         <v>2</v>
       </c>
-      <c r="AG90" t="n">
+      <c r="AG91" t="n">
         <v>2.55</v>
       </c>
-      <c r="AH90" t="n">
+      <c r="AH91" t="n">
         <v>3.5</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-01-29_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-29_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>2.35</v>
       </c>
       <c r="V3" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="W3" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="X3" t="n">
         <v>1.99</v>
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="G4" t="n">
-        <v>3.76</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="I4" t="n">
         <v>1.02</v>
@@ -871,10 +871,10 @@
         <v>3.8</v>
       </c>
       <c r="M4" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="N4" t="n">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -898,10 +898,10 @@
         <v>1.36</v>
       </c>
       <c r="V4" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W4" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="X4" t="n">
         <v>1.19</v>
@@ -960,13 +960,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.05</v>
+        <v>2.91</v>
       </c>
       <c r="G5" t="n">
-        <v>3.22</v>
+        <v>3.15</v>
       </c>
       <c r="H5" t="n">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="I5" t="n">
         <v>1.07</v>
@@ -981,7 +981,7 @@
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="N5" t="n">
         <v>1.68</v>
@@ -1008,10 +1008,10 @@
         <v>1.35</v>
       </c>
       <c r="V5" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="W5" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="X5" t="n">
         <v>1.47</v>
@@ -1070,13 +1070,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.76</v>
+        <v>2.79</v>
       </c>
       <c r="G6" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="H6" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="I6" t="n">
         <v>1.03</v>
@@ -1091,10 +1091,10 @@
         <v>4.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.67</v>
+        <v>1.97</v>
       </c>
       <c r="N6" t="n">
-        <v>2.2</v>
+        <v>1.78</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
@@ -1118,10 +1118,10 @@
         <v>1.45</v>
       </c>
       <c r="V6" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="W6" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="X6" t="n">
         <v>2.1</v>
@@ -1180,13 +1180,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H7" t="n">
-        <v>3.02</v>
+        <v>3.32</v>
       </c>
       <c r="I7" t="n">
         <v>1.03</v>
@@ -1201,10 +1201,10 @@
         <v>3.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="N7" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="O7" t="n">
         <v>1.44</v>
@@ -1228,10 +1228,10 @@
         <v>1.7</v>
       </c>
       <c r="V7" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="W7" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="X7" t="n">
         <v>1.63</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="G8" t="n">
-        <v>4.9</v>
+        <v>4.65</v>
       </c>
       <c r="H8" t="n">
-        <v>6.7</v>
+        <v>5.92</v>
       </c>
       <c r="I8" t="n">
         <v>1.01</v>
@@ -1311,10 +1311,10 @@
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="N8" t="n">
-        <v>2.35</v>
+        <v>2.46</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1338,10 +1338,10 @@
         <v>2.7</v>
       </c>
       <c r="V8" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="W8" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="X8" t="n">
         <v>1.96</v>
@@ -1400,13 +1400,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.32</v>
+        <v>2.55</v>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>2.83</v>
       </c>
       <c r="I9" t="n">
         <v>1.09</v>
@@ -1421,10 +1421,10 @@
         <v>2.5</v>
       </c>
       <c r="M9" t="n">
-        <v>2.48</v>
+        <v>2.47</v>
       </c>
       <c r="N9" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="O9" t="n">
         <v>1.56</v>
@@ -1448,10 +1448,10 @@
         <v>1.52</v>
       </c>
       <c r="V9" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="X9" t="n">
         <v>1.52</v>
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="G10" t="n">
-        <v>3.48</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="I10" t="n">
         <v>1.06</v>
@@ -1531,10 +1531,10 @@
         <v>3.3</v>
       </c>
       <c r="M10" t="n">
-        <v>2.12</v>
+        <v>1.99</v>
       </c>
       <c r="N10" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
@@ -1558,10 +1558,10 @@
         <v>1.38</v>
       </c>
       <c r="V10" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="W10" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="X10" t="n">
         <v>1.72</v>
@@ -1620,13 +1620,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.47</v>
+        <v>2.64</v>
       </c>
       <c r="G11" t="n">
-        <v>3.48</v>
+        <v>3.4</v>
       </c>
       <c r="H11" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="I11" t="n">
         <v>1.01</v>
@@ -1641,10 +1641,10 @@
         <v>3.46</v>
       </c>
       <c r="M11" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="N11" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="O11" t="n">
         <v>1.37</v>
@@ -1668,10 +1668,10 @@
         <v>1.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="W11" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X11" t="n">
         <v>1.35</v>
@@ -1730,13 +1730,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>3.74</v>
+        <v>3.65</v>
       </c>
       <c r="H12" t="n">
-        <v>3.56</v>
+        <v>3.69</v>
       </c>
       <c r="I12" t="n">
         <v>1.05</v>
@@ -1751,10 +1751,10 @@
         <v>3.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O12" t="n">
         <v>1.36</v>
@@ -1778,10 +1778,10 @@
         <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="W12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X12" t="n">
         <v>1.55</v>
@@ -1840,13 +1840,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="G13" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="H13" t="n">
-        <v>4.9</v>
+        <v>5.89</v>
       </c>
       <c r="I13" t="n">
         <v>1.03</v>
@@ -1861,10 +1861,10 @@
         <v>4.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="N13" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="O13" t="n">
         <v>1.29</v>
@@ -1888,10 +1888,10 @@
         <v>2.45</v>
       </c>
       <c r="V13" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="W13" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="X13" t="n">
         <v>2.01</v>
@@ -1950,13 +1950,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.41</v>
+        <v>2.79</v>
       </c>
       <c r="G14" t="n">
-        <v>3.52</v>
+        <v>3.45</v>
       </c>
       <c r="H14" t="n">
-        <v>2.76</v>
+        <v>2.52</v>
       </c>
       <c r="I14" t="n">
         <v>1.06</v>
@@ -1971,10 +1971,10 @@
         <v>3.3</v>
       </c>
       <c r="M14" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="N14" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="O14" t="n">
         <v>1.4</v>
@@ -1998,10 +1998,10 @@
         <v>1.47</v>
       </c>
       <c r="V14" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="W14" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="X14" t="n">
         <v>1.71</v>
@@ -2060,13 +2060,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="G15" t="n">
-        <v>3.58</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
-        <v>2.51</v>
+        <v>2.4</v>
       </c>
       <c r="I15" t="n">
         <v>1.02</v>
@@ -2081,10 +2081,10 @@
         <v>3.4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="N15" t="n">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="O15" t="n">
         <v>1.39</v>
@@ -2108,10 +2108,10 @@
         <v>1.47</v>
       </c>
       <c r="V15" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W15" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="X15" t="n">
         <v>1.75</v>
@@ -2170,13 +2170,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="G16" t="n">
-        <v>3.42</v>
+        <v>3.25</v>
       </c>
       <c r="H16" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="I16" t="n">
         <v>1.07</v>
@@ -2191,10 +2191,10 @@
         <v>3.2</v>
       </c>
       <c r="M16" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="N16" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="O16" t="n">
         <v>1.41</v>
@@ -2218,10 +2218,10 @@
         <v>1.25</v>
       </c>
       <c r="V16" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="X16" t="n">
         <v>1.39</v>
@@ -2280,13 +2280,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="G17" t="n">
-        <v>2.79</v>
+        <v>2.65</v>
       </c>
       <c r="H17" t="n">
-        <v>3.08</v>
+        <v>2.8</v>
       </c>
       <c r="I17" t="n">
         <v>1.11</v>
@@ -2328,10 +2328,10 @@
         <v>1.44</v>
       </c>
       <c r="V17" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="W17" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="X17" t="n">
         <v>1.11</v>
@@ -2390,13 +2390,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.22</v>
+        <v>3.89</v>
       </c>
       <c r="G18" t="n">
-        <v>3.44</v>
+        <v>3.55</v>
       </c>
       <c r="H18" t="n">
-        <v>2.13</v>
+        <v>1.9</v>
       </c>
       <c r="I18" t="n">
         <v>1.01</v>
@@ -2411,10 +2411,10 @@
         <v>3.72</v>
       </c>
       <c r="M18" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="N18" t="n">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -2438,10 +2438,10 @@
         <v>1.22</v>
       </c>
       <c r="V18" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="W18" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="X18" t="n">
         <v>1.47</v>
@@ -2500,13 +2500,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.96</v>
+        <v>2.89</v>
       </c>
       <c r="G19" t="n">
-        <v>3.13</v>
+        <v>2.9</v>
       </c>
       <c r="H19" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="I19" t="n">
         <v>1.1</v>
@@ -2521,10 +2521,10 @@
         <v>2.5</v>
       </c>
       <c r="M19" t="n">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="N19" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="O19" t="n">
         <v>1.57</v>
@@ -2548,10 +2548,10 @@
         <v>1.38</v>
       </c>
       <c r="V19" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="W19" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="X19" t="n">
         <v>1.63</v>
@@ -2610,13 +2610,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.3</v>
+        <v>3.11</v>
       </c>
       <c r="G20" t="n">
-        <v>3.36</v>
+        <v>3.25</v>
       </c>
       <c r="H20" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="I20" t="n">
         <v>1.06</v>
@@ -2631,10 +2631,10 @@
         <v>3.1</v>
       </c>
       <c r="M20" t="n">
-        <v>1.91</v>
+        <v>2.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="O20" t="n">
         <v>1.44</v>
@@ -2658,10 +2658,10 @@
         <v>1.41</v>
       </c>
       <c r="V20" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="W20" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="X20" t="n">
         <v>1.51</v>
@@ -2720,13 +2720,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="G21" t="n">
-        <v>3.22</v>
+        <v>3.11</v>
       </c>
       <c r="H21" t="n">
-        <v>3.12</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
         <v>1.08</v>
@@ -2768,10 +2768,10 @@
         <v>1.57</v>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="X21" t="n">
         <v>1.31</v>
@@ -2830,13 +2830,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="G22" t="n">
-        <v>3.68</v>
+        <v>3.6</v>
       </c>
       <c r="H22" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="I22" t="n">
         <v>1.01</v>
@@ -2851,10 +2851,10 @@
         <v>3.9</v>
       </c>
       <c r="M22" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="N22" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O22" t="n">
         <v>1.33</v>
@@ -2863,10 +2863,10 @@
         <v>3.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R22" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S22" t="n">
         <v>1.4</v>
@@ -2878,10 +2878,10 @@
         <v>1.52</v>
       </c>
       <c r="V22" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="W22" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="X22" t="n">
         <v>1.48</v>
@@ -2908,7 +2908,7 @@
         <v>1.37</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="AG22" t="n">
         <v>2.01</v>
@@ -2940,13 +2940,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="G23" t="n">
-        <v>5.2</v>
+        <v>5.25</v>
       </c>
       <c r="H23" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="I23" t="n">
         <v>1.02</v>
@@ -2961,10 +2961,10 @@
         <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="N23" t="n">
-        <v>2.37</v>
+        <v>2.43</v>
       </c>
       <c r="O23" t="n">
         <v>1.25</v>
@@ -2988,10 +2988,10 @@
         <v>3.24</v>
       </c>
       <c r="V23" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="W23" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X23" t="n">
         <v>1.95</v>
@@ -3050,13 +3050,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>7.6</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="H24" t="n">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="I24" t="n">
         <v>1.02</v>
@@ -3071,10 +3071,10 @@
         <v>4.93</v>
       </c>
       <c r="M24" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="N24" t="n">
-        <v>2.47</v>
+        <v>3.05</v>
       </c>
       <c r="O24" t="n">
         <v>1.28</v>
@@ -3098,10 +3098,10 @@
         <v>1.06</v>
       </c>
       <c r="V24" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X24" t="n">
         <v>1.49</v>
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="G25" t="n">
-        <v>3.54</v>
+        <v>3.4</v>
       </c>
       <c r="H25" t="n">
-        <v>2.79</v>
+        <v>2.98</v>
       </c>
       <c r="I25" t="n">
         <v>1.04</v>
@@ -3184,7 +3184,7 @@
         <v>1.8</v>
       </c>
       <c r="N25" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O25" t="n">
         <v>1.31</v>
@@ -3208,10 +3208,10 @@
         <v>1.55</v>
       </c>
       <c r="V25" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W25" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X25" t="n">
         <v>1.63</v>
@@ -3270,13 +3270,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.22</v>
+        <v>3.17</v>
       </c>
       <c r="G26" t="n">
-        <v>3.34</v>
+        <v>3.45</v>
       </c>
       <c r="H26" t="n">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="I26" t="n">
         <v>1.02</v>
@@ -3291,10 +3291,10 @@
         <v>3.26</v>
       </c>
       <c r="M26" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="N26" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O26" t="n">
         <v>1.4</v>
@@ -3318,10 +3318,10 @@
         <v>1.33</v>
       </c>
       <c r="V26" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="W26" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X26" t="n">
         <v>1.35</v>
@@ -3380,13 +3380,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="G27" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="H27" t="n">
-        <v>7.6</v>
+        <v>7.14</v>
       </c>
       <c r="I27" t="n">
         <v>1.03</v>
@@ -3401,10 +3401,10 @@
         <v>3.9</v>
       </c>
       <c r="M27" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="N27" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="O27" t="n">
         <v>1.33</v>
@@ -3428,10 +3428,10 @@
         <v>2.75</v>
       </c>
       <c r="V27" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="W27" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="X27" t="n">
         <v>2.03</v>
@@ -3511,10 +3511,10 @@
         <v>3.4</v>
       </c>
       <c r="M28" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="N28" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O28" t="n">
         <v>1.44</v>
@@ -3538,10 +3538,10 @@
         <v>2.15</v>
       </c>
       <c r="V28" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="W28" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="X28" t="n">
         <v>1.89</v>
@@ -3553,13 +3553,13 @@
         <v>3.07</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AB28" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="AD28" t="n">
         <v>1.48</v>
@@ -3600,13 +3600,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="G29" t="n">
-        <v>3.62</v>
+        <v>3.35</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="I29" t="n">
         <v>1.05</v>
@@ -3624,7 +3624,7 @@
         <v>1.96</v>
       </c>
       <c r="N29" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="O29" t="n">
         <v>1.4</v>
@@ -3648,10 +3648,10 @@
         <v>1.53</v>
       </c>
       <c r="V29" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W29" t="n">
         <v>1</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0.78</v>
       </c>
       <c r="X29" t="n">
         <v>1.6</v>
@@ -3710,13 +3710,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.46</v>
+        <v>2.43</v>
       </c>
       <c r="G30" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="H30" t="n">
-        <v>3.09</v>
+        <v>2.98</v>
       </c>
       <c r="I30" t="n">
         <v>1.07</v>
@@ -3731,10 +3731,10 @@
         <v>3.2</v>
       </c>
       <c r="M30" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="N30" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="O30" t="n">
         <v>1.44</v>
@@ -3758,10 +3758,10 @@
         <v>1.57</v>
       </c>
       <c r="V30" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W30" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="X30" t="n">
         <v>1.35</v>
@@ -3820,13 +3820,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="G31" t="n">
-        <v>3.44</v>
+        <v>3.5</v>
       </c>
       <c r="H31" t="n">
-        <v>3.56</v>
+        <v>2.99</v>
       </c>
       <c r="I31" t="n">
         <v>1.05</v>
@@ -3841,10 +3841,10 @@
         <v>3.8</v>
       </c>
       <c r="M31" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="N31" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="O31" t="n">
         <v>1.33</v>
@@ -3868,10 +3868,10 @@
         <v>1.65</v>
       </c>
       <c r="V31" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="W31" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="X31" t="n">
         <v>1.52</v>
@@ -3930,13 +3930,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="G32" t="n">
-        <v>3.62</v>
+        <v>3.45</v>
       </c>
       <c r="H32" t="n">
-        <v>3.62</v>
+        <v>3.46</v>
       </c>
       <c r="I32" t="n">
         <v>1.04</v>
@@ -3951,10 +3951,10 @@
         <v>3.6</v>
       </c>
       <c r="M32" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="N32" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="O32" t="n">
         <v>1.4</v>
@@ -3978,10 +3978,10 @@
         <v>1.7</v>
       </c>
       <c r="V32" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="W32" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="X32" t="n">
         <v>1.54</v>
@@ -4040,13 +4040,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="G33" t="n">
-        <v>6.45</v>
+        <v>6.4</v>
       </c>
       <c r="H33" t="n">
-        <v>11</v>
+        <v>10.48</v>
       </c>
       <c r="I33" t="n">
         <v>1.02</v>
@@ -4061,10 +4061,10 @@
         <v>4.75</v>
       </c>
       <c r="M33" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="N33" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="O33" t="n">
         <v>1.25</v>
@@ -4091,7 +4091,7 @@
         <v>3</v>
       </c>
       <c r="W33" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="X33" t="n">
         <v>2.19</v>
@@ -4150,13 +4150,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="G34" t="n">
-        <v>3.94</v>
+        <v>3.9</v>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>4.16</v>
       </c>
       <c r="I34" t="n">
         <v>1.03</v>
@@ -4171,10 +4171,10 @@
         <v>4.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="N34" t="n">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="O34" t="n">
         <v>1.29</v>
@@ -4198,10 +4198,10 @@
         <v>2.1</v>
       </c>
       <c r="V34" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W34" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X34" t="n">
         <v>1.6</v>
@@ -4260,13 +4260,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="G35" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="H35" t="n">
-        <v>4.54</v>
+        <v>4.87</v>
       </c>
       <c r="I35" t="n">
         <v>1.04</v>
@@ -4281,10 +4281,10 @@
         <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="N35" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="O35" t="n">
         <v>1.33</v>
@@ -4308,10 +4308,10 @@
         <v>2.25</v>
       </c>
       <c r="V35" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W35" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="X35" t="n">
         <v>1.77</v>
@@ -4370,13 +4370,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="G36" t="n">
-        <v>4.22</v>
+        <v>4.05</v>
       </c>
       <c r="H36" t="n">
-        <v>5.95</v>
+        <v>6.14</v>
       </c>
       <c r="I36" t="n">
         <v>1.04</v>
@@ -4391,10 +4391,10 @@
         <v>3.75</v>
       </c>
       <c r="M36" t="n">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="N36" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="O36" t="n">
         <v>1.36</v>
@@ -4418,10 +4418,10 @@
         <v>2.37</v>
       </c>
       <c r="V36" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="W36" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="X36" t="n">
         <v>1.89</v>
@@ -4480,13 +4480,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="G37" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H37" t="n">
-        <v>4.46</v>
+        <v>4.25</v>
       </c>
       <c r="I37" t="n">
         <v>1.07</v>
@@ -4501,10 +4501,10 @@
         <v>3.1</v>
       </c>
       <c r="M37" t="n">
-        <v>2.33</v>
+        <v>2.07</v>
       </c>
       <c r="N37" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="O37" t="n">
         <v>1.43</v>
@@ -4590,13 +4590,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="G38" t="n">
-        <v>3.42</v>
+        <v>3.25</v>
       </c>
       <c r="H38" t="n">
-        <v>3.64</v>
+        <v>3.85</v>
       </c>
       <c r="I38" t="n">
         <v>1.08</v>
@@ -4611,10 +4611,10 @@
         <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="N38" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="O38" t="n">
         <v>1.44</v>
@@ -4638,10 +4638,10 @@
         <v>1.8</v>
       </c>
       <c r="V38" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="W38" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="X38" t="n">
         <v>1.75</v>
@@ -4700,13 +4700,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.81</v>
+        <v>3.32</v>
       </c>
       <c r="G39" t="n">
-        <v>3.34</v>
+        <v>3.1</v>
       </c>
       <c r="H39" t="n">
-        <v>2.42</v>
+        <v>2.08</v>
       </c>
       <c r="I39" t="n">
         <v>1.08</v>
@@ -4721,10 +4721,10 @@
         <v>2.75</v>
       </c>
       <c r="M39" t="n">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="N39" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="O39" t="n">
         <v>1.44</v>
@@ -4748,10 +4748,10 @@
         <v>1.35</v>
       </c>
       <c r="V39" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="W39" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X39" t="n">
         <v>1.54</v>
@@ -4810,13 +4810,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="G40" t="n">
-        <v>4.94</v>
+        <v>5.85</v>
       </c>
       <c r="H40" t="n">
-        <v>12</v>
+        <v>11.41</v>
       </c>
       <c r="I40" t="n">
         <v>1.02</v>
@@ -4831,10 +4831,10 @@
         <v>4.33</v>
       </c>
       <c r="M40" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="N40" t="n">
-        <v>2.14</v>
+        <v>2.03</v>
       </c>
       <c r="O40" t="n">
         <v>1.33</v>
@@ -4858,10 +4858,10 @@
         <v>3.43</v>
       </c>
       <c r="V40" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="W40" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="X40" t="n">
         <v>1.69</v>
@@ -4920,13 +4920,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.92</v>
+        <v>3.78</v>
       </c>
       <c r="G41" t="n">
-        <v>3.64</v>
+        <v>3.7</v>
       </c>
       <c r="H41" t="n">
-        <v>2.51</v>
+        <v>1.96</v>
       </c>
       <c r="I41" t="n">
         <v>1.01</v>
@@ -4941,10 +4941,10 @@
         <v>3.72</v>
       </c>
       <c r="M41" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="N41" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O41" t="n">
         <v>1.36</v>
@@ -4968,10 +4968,10 @@
         <v>1.3</v>
       </c>
       <c r="V41" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="W41" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="X41" t="n">
         <v>1.49</v>
@@ -5030,13 +5030,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.24</v>
+        <v>3.17</v>
       </c>
       <c r="G42" t="n">
-        <v>3.52</v>
+        <v>3.4</v>
       </c>
       <c r="H42" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="I42" t="n">
         <v>1.02</v>
@@ -5051,10 +5051,10 @@
         <v>3.4</v>
       </c>
       <c r="M42" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="N42" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="O42" t="n">
         <v>1.39</v>
@@ -5078,10 +5078,10 @@
         <v>1.34</v>
       </c>
       <c r="V42" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="W42" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="X42" t="n">
         <v>1.71</v>
@@ -5140,13 +5140,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="G43" t="n">
         <v>3.6</v>
       </c>
       <c r="H43" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="I43" t="n">
         <v>1.02</v>
@@ -5161,7 +5161,7 @@
         <v>4.87</v>
       </c>
       <c r="M43" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="N43" t="n">
         <v>2.29</v>
@@ -5188,10 +5188,10 @@
         <v>1.35</v>
       </c>
       <c r="V43" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="W43" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="X43" t="n">
         <v>1.77</v>
@@ -5241,317 +5241,317 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Pyramids FC</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.02</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>6.41</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W44" t="n">
         <v>2.71</v>
       </c>
-      <c r="W44" t="n">
-        <v>1.17</v>
-      </c>
       <c r="X44" t="n">
-        <v>1.83</v>
+        <v>1.02</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.69</v>
+        <v>2.05</v>
       </c>
       <c r="Z44" t="n">
-        <v>3.52</v>
+        <v>3.07</v>
       </c>
       <c r="AA44" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AB44" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AC44" t="n">
-        <v>3.52</v>
+        <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AE44" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AF44" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AG44" t="n">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AH44" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Chile Primera División</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
         <v>44955.5</v>
       </c>
       <c r="C45" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Huachipato</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="V45" t="n">
-        <v>1.14</v>
+        <v>3</v>
       </c>
       <c r="W45" t="n">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="Z45" t="n">
-        <v>3.07</v>
+        <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AB45" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE45" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF45" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AG45" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AH45" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Chile Primera División</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>44955.5</v>
+        <v>44955.51041666666</v>
       </c>
       <c r="C46" t="n">
+        <v>25</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Levante UD</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="J46" t="n">
+        <v>6</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF46" t="n">
         <v>2</v>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Huachipato</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Cobresal</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="G46" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="J46" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="N46" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P46" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T46" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>1.98</v>
-      </c>
       <c r="AG46" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AH46" t="n">
         <v>3.5</v>
@@ -5560,328 +5560,328 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
         <v>44955.51041666666</v>
       </c>
       <c r="C47" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Levante UD</t>
+          <t>CA Osasuna</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Atlético Madrid</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.62</v>
+        <v>3.42</v>
       </c>
       <c r="G47" t="n">
-        <v>3.74</v>
+        <v>3.25</v>
       </c>
       <c r="H47" t="n">
-        <v>5.9</v>
+        <v>2.2</v>
       </c>
       <c r="I47" t="n">
         <v>1.09</v>
       </c>
       <c r="J47" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K47" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O47" t="n">
         <v>1.5</v>
       </c>
-      <c r="L47" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="M47" t="n">
+      <c r="P47" t="n">
         <v>2.5</v>
       </c>
-      <c r="N47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P47" t="n">
-        <v>2.48</v>
-      </c>
       <c r="Q47" t="n">
-        <v>2.63</v>
+        <v>1.95</v>
       </c>
       <c r="R47" t="n">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="S47" t="n">
-        <v>1.11</v>
+        <v>1.7</v>
       </c>
       <c r="T47" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="U47" t="n">
-        <v>2.5</v>
+        <v>1.32</v>
       </c>
       <c r="V47" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W47" t="n">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="X47" t="n">
-        <v>1.6</v>
+        <v>1.79</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="Z47" t="n">
-        <v>2.74</v>
+        <v>3.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>1.17</v>
+        <v>2.12</v>
       </c>
       <c r="AB47" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="AD47" t="n">
-        <v>1.26</v>
+        <v>1.45</v>
       </c>
       <c r="AE47" t="n">
-        <v>1.49</v>
+        <v>1.71</v>
       </c>
       <c r="AF47" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="AG47" t="n">
-        <v>2.5</v>
+        <v>2.85</v>
       </c>
       <c r="AH47" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
         <v>44955.51041666666</v>
       </c>
       <c r="C48" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>CA Osasuna</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Atlético Madrid</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.46</v>
+        <v>1.85</v>
       </c>
       <c r="G48" t="n">
-        <v>3.36</v>
+        <v>3.45</v>
       </c>
       <c r="H48" t="n">
-        <v>2.33</v>
+        <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="J48" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K48" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="L48" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="M48" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N48" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="O48" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P48" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R48" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X48" t="n">
         <v>1.8</v>
       </c>
-      <c r="S48" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U48" t="n">
+      <c r="Y48" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AA48" t="n">
         <v>1.32</v>
       </c>
-      <c r="V48" t="n">
-        <v>2</v>
-      </c>
-      <c r="W48" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="X48" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>2.12</v>
-      </c>
       <c r="AB48" t="n">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="AC48" t="n">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="AD48" t="n">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="AE48" t="n">
-        <v>1.71</v>
+        <v>1.32</v>
       </c>
       <c r="AF48" t="n">
-        <v>2.16</v>
+        <v>1.57</v>
       </c>
       <c r="AG48" t="n">
-        <v>2.85</v>
+        <v>1.98</v>
       </c>
       <c r="AH48" t="n">
-        <v>3.9</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Switzerland Challenge League</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>44955.51041666666</v>
+        <v>44955.52083333334</v>
       </c>
       <c r="C49" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Neuchâtel Xamax</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>FC Schaffhausen</t>
         </is>
       </c>
       <c r="F49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J49" t="n">
+        <v>9</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF49" t="n">
         <v>1.91</v>
       </c>
-      <c r="G49" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H49" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="J49" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3</v>
-      </c>
-      <c r="M49" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N49" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P49" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S49" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="T49" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U49" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V49" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="W49" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X49" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>1.57</v>
-      </c>
       <c r="AG49" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="AH49" t="n">
         <v>2.65</v>
@@ -5901,210 +5901,210 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Neuchâtel Xamax</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FC Schaffhausen</t>
+          <t>Lausanne Sport</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="G50" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H50" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="I50" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="J50" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K50" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="L50" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="N50" t="n">
         <v>2.1</v>
       </c>
       <c r="O50" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P50" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="R50" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S50" t="n">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="T50" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U50" t="n">
-        <v>1.72</v>
+        <v>1.52</v>
       </c>
       <c r="V50" t="n">
-        <v>1.11</v>
+        <v>1.9</v>
       </c>
       <c r="W50" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="X50" t="n">
-        <v>1.51</v>
+        <v>1.91</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="Z50" t="n">
-        <v>3</v>
+        <v>3.36</v>
       </c>
       <c r="AA50" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="AB50" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AC50" t="n">
-        <v>2.46</v>
+        <v>2.37</v>
       </c>
       <c r="AD50" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="AE50" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="AF50" t="n">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="AG50" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="AH50" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Switzerland Challenge League</t>
+          <t>Switzerland Super League</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
         <v>44955.52083333334</v>
       </c>
       <c r="C51" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Lausanne Sport</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.54</v>
+        <v>2.4</v>
       </c>
       <c r="G51" t="n">
-        <v>3.54</v>
+        <v>3.3</v>
       </c>
       <c r="H51" t="n">
-        <v>2.54</v>
+        <v>2.85</v>
       </c>
       <c r="I51" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="J51" t="n">
-        <v>10</v>
+        <v>12.75</v>
       </c>
       <c r="K51" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>3.93</v>
       </c>
       <c r="M51" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Y51" t="n">
         <v>1.68</v>
       </c>
-      <c r="N51" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P51" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R51" t="n">
+      <c r="Z51" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AG51" t="n">
         <v>2.2</v>
       </c>
-      <c r="S51" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T51" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U51" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V51" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="W51" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="X51" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>2.22</v>
-      </c>
       <c r="AH51" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="52">
@@ -6121,106 +6121,106 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Zürich</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.11</v>
+        <v>2.43</v>
       </c>
       <c r="G52" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H52" t="n">
-        <v>3.26</v>
+        <v>2.65</v>
       </c>
       <c r="I52" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="J52" t="n">
-        <v>12.75</v>
+        <v>12</v>
       </c>
       <c r="K52" t="n">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="L52" t="n">
-        <v>3.93</v>
+        <v>4.7</v>
       </c>
       <c r="M52" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="N52" t="n">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
       <c r="O52" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P52" t="n">
-        <v>2.97</v>
+        <v>3.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="R52" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AA52" t="n">
         <v>2.1</v>
       </c>
-      <c r="S52" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="U52" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V52" t="n">
-        <v>2</v>
-      </c>
-      <c r="W52" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X52" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>1.36</v>
-      </c>
       <c r="AB52" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AC52" t="n">
-        <v>3.6</v>
+        <v>1.91</v>
       </c>
       <c r="AD52" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AE52" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="AF52" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AG52" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AH52" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Switzerland Super League</t>
+          <t>Portugal Liga NOS</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
@@ -6231,100 +6231,100 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Zürich</t>
+          <t>FC Vizela</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Rio Ave FC</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.39</v>
+        <v>2.14</v>
       </c>
       <c r="G53" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="H53" t="n">
-        <v>2.69</v>
+        <v>3.25</v>
       </c>
       <c r="I53" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="J53" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K53" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AD53" t="n">
         <v>1.17</v>
       </c>
-      <c r="L53" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="N53" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P53" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q53" t="n">
+      <c r="AE53" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF53" t="n">
         <v>1.5</v>
       </c>
-      <c r="R53" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T53" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="U53" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V53" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="W53" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="X53" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AG53" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AH53" t="n">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="54">
@@ -6341,106 +6341,106 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>FC Vizela</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Rio Ave FC</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="G54" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H54" t="n">
-        <v>3.38</v>
+        <v>3.45</v>
       </c>
       <c r="I54" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="J54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K54" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="M54" t="n">
-        <v>2.15</v>
+        <v>2.29</v>
       </c>
       <c r="N54" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R54" t="n">
         <v>1.65</v>
       </c>
-      <c r="O54" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P54" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.77</v>
-      </c>
       <c r="S54" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="T54" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="U54" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V54" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="W54" t="n">
-        <v>0.89</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X54" t="n">
-        <v>1.96</v>
+        <v>1.23</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="Z54" t="n">
-        <v>3.17</v>
+        <v>2.46</v>
       </c>
       <c r="AA54" t="n">
         <v>1.64</v>
       </c>
       <c r="AB54" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC54" t="n">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="AD54" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AE54" t="n">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="AF54" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AG54" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AH54" t="n">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Portugal Liga NOS</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
@@ -6451,100 +6451,100 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>CD Mafra</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>UD Oliveirense</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.07</v>
+        <v>1.91</v>
       </c>
       <c r="G55" t="n">
         <v>3.3</v>
       </c>
       <c r="H55" t="n">
-        <v>3.68</v>
+        <v>3.4</v>
       </c>
       <c r="I55" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="J55" t="n">
         <v>8</v>
       </c>
       <c r="K55" t="n">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="L55" t="n">
-        <v>2.65</v>
+        <v>3.4</v>
       </c>
       <c r="M55" t="n">
-        <v>2.48</v>
+        <v>1.99</v>
       </c>
       <c r="N55" t="n">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="O55" t="n">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="P55" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="R55" t="n">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="S55" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="T55" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="U55" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V55" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W55" t="n">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="X55" t="n">
-        <v>1.23</v>
+        <v>1.81</v>
       </c>
       <c r="Y55" t="n">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="Z55" t="n">
-        <v>2.46</v>
+        <v>3.21</v>
       </c>
       <c r="AA55" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="AB55" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AC55" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AD55" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AE55" t="n">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AF55" t="n">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
       <c r="AG55" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AH55" t="n">
-        <v>3.2</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="56">
@@ -6561,25 +6561,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>CD Mafra</t>
+          <t>Estrela Amadora</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>UD Oliveirense</t>
+          <t>CD Feirense</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.85</v>
+        <v>2.27</v>
       </c>
       <c r="G56" t="n">
-        <v>3.54</v>
+        <v>3.2</v>
       </c>
       <c r="H56" t="n">
-        <v>3.86</v>
+        <v>2.73</v>
       </c>
       <c r="I56" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="J56" t="n">
         <v>8</v>
@@ -6588,177 +6588,177 @@
         <v>1.28</v>
       </c>
       <c r="L56" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M56" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="N56" t="n">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="O56" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="P56" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R56" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S56" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T56" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="U56" t="n">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="V56" t="n">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="W56" t="n">
-        <v>0.78</v>
+        <v>1.5</v>
       </c>
       <c r="X56" t="n">
-        <v>1.81</v>
+        <v>1.57</v>
       </c>
       <c r="Y56" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="Z56" t="n">
-        <v>3.21</v>
+        <v>3.08</v>
       </c>
       <c r="AA56" t="n">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="AB56" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AC56" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="AD56" t="n">
         <v>1.14</v>
       </c>
       <c r="AE56" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AF56" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="AG56" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AH56" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Netherlands Eredivisie</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44955.52083333334</v>
+        <v>44955.53125</v>
       </c>
       <c r="C57" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Estrela Amadora</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CD Feirense</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.36</v>
+        <v>2.41</v>
       </c>
       <c r="G57" t="n">
-        <v>3.24</v>
+        <v>3.35</v>
       </c>
       <c r="H57" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="I57" t="n">
         <v>1.04</v>
       </c>
       <c r="J57" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K57" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="L57" t="n">
-        <v>3.3</v>
+        <v>3.67</v>
       </c>
       <c r="M57" t="n">
-        <v>2.12</v>
+        <v>1.87</v>
       </c>
       <c r="N57" t="n">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="O57" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="P57" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="R57" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="S57" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="T57" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="U57" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="V57" t="n">
-        <v>1.89</v>
+        <v>0.3</v>
       </c>
       <c r="W57" t="n">
-        <v>1.67</v>
+        <v>1.22</v>
       </c>
       <c r="X57" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="Y57" t="n">
-        <v>1.51</v>
+        <v>1.11</v>
       </c>
       <c r="Z57" t="n">
-        <v>3.08</v>
+        <v>2.72</v>
       </c>
       <c r="AA57" t="n">
-        <v>1.71</v>
+        <v>1.9</v>
       </c>
       <c r="AB57" t="n">
-        <v>5.5</v>
+        <v>7.9</v>
       </c>
       <c r="AC57" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AD57" t="n">
         <v>1.14</v>
       </c>
       <c r="AE57" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AF57" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AG57" t="n">
         <v>1.93</v>
@@ -6770,221 +6770,221 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Netherlands Eredivisie</t>
+          <t>Scotland Premiership</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44955.53125</v>
+        <v>44955.54166666666</v>
       </c>
       <c r="C58" t="n">
+        <v>23</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Dundee United</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>10</v>
+      </c>
+      <c r="G58" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J58" t="n">
         <v>19</v>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Cambuur</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Fortuna Sittard</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="G58" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="J58" t="n">
-        <v>12</v>
-      </c>
       <c r="K58" t="n">
-        <v>1.26</v>
+        <v>1.12</v>
       </c>
       <c r="L58" t="n">
-        <v>3.67</v>
+        <v>6</v>
       </c>
       <c r="M58" t="n">
-        <v>1.79</v>
+        <v>1.38</v>
       </c>
       <c r="N58" t="n">
-        <v>2.02</v>
+        <v>2.72</v>
       </c>
       <c r="O58" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="P58" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="R58" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="S58" t="n">
-        <v>1.5</v>
+        <v>4.29</v>
       </c>
       <c r="T58" t="n">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
       <c r="U58" t="n">
-        <v>1.53</v>
+        <v>1.06</v>
       </c>
       <c r="V58" t="n">
-        <v>0.33</v>
+        <v>1.08</v>
       </c>
       <c r="W58" t="n">
-        <v>1</v>
+        <v>2.58</v>
       </c>
       <c r="X58" t="n">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="Y58" t="n">
-        <v>1.11</v>
+        <v>2.27</v>
       </c>
       <c r="Z58" t="n">
-        <v>2.72</v>
+        <v>3.66</v>
       </c>
       <c r="AA58" t="n">
-        <v>1.9</v>
+        <v>6.25</v>
       </c>
       <c r="AB58" t="n">
-        <v>7.9</v>
+        <v>11</v>
       </c>
       <c r="AC58" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH58" t="n">
         <v>2.3</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>2.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Scotland Premiership</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
         <v>44955.54166666666</v>
       </c>
       <c r="C59" t="n">
+        <v>21</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Fenerbahçe</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Kasımpaşa</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J59" t="n">
         <v>23</v>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Dundee United</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Celtic</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="G59" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J59" t="n">
-        <v>19</v>
-      </c>
       <c r="K59" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="L59" t="n">
-        <v>6</v>
+        <v>5.61</v>
       </c>
       <c r="M59" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="N59" t="n">
-        <v>2.72</v>
+        <v>2.44</v>
       </c>
       <c r="O59" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P59" t="n">
-        <v>4</v>
+        <v>3.78</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="R59" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S59" t="n">
-        <v>4.29</v>
+        <v>1.08</v>
       </c>
       <c r="T59" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="U59" t="n">
-        <v>1.06</v>
+        <v>3.2</v>
       </c>
       <c r="V59" t="n">
-        <v>1.18</v>
+        <v>2.27</v>
       </c>
       <c r="W59" t="n">
-        <v>2.55</v>
+        <v>0.89</v>
       </c>
       <c r="X59" t="n">
-        <v>1.39</v>
+        <v>1.99</v>
       </c>
       <c r="Y59" t="n">
-        <v>2.27</v>
+        <v>1.35</v>
       </c>
       <c r="Z59" t="n">
-        <v>3.66</v>
+        <v>3.34</v>
       </c>
       <c r="AA59" t="n">
-        <v>6.25</v>
+        <v>1.25</v>
       </c>
       <c r="AB59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC59" t="n">
-        <v>1.17</v>
+        <v>4.74</v>
       </c>
       <c r="AD59" t="n">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
       <c r="AE59" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="AF59" t="n">
-        <v>1.46</v>
+        <v>1.91</v>
       </c>
       <c r="AG59" t="n">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="AH59" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="60">
@@ -7001,46 +7001,46 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Fenerbahçe</t>
+          <t>İstanbul Başakşehir</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Kasımpaşa</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.4</v>
+        <v>2.04</v>
       </c>
       <c r="G60" t="n">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
       <c r="H60" t="n">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="I60" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="J60" t="n">
-        <v>23</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K60" t="n">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="L60" t="n">
-        <v>5.61</v>
+        <v>3.54</v>
       </c>
       <c r="M60" t="n">
-        <v>1.46</v>
+        <v>1.83</v>
       </c>
       <c r="N60" t="n">
-        <v>2.65</v>
+        <v>2.03</v>
       </c>
       <c r="O60" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="P60" t="n">
-        <v>3.78</v>
+        <v>2.99</v>
       </c>
       <c r="Q60" t="n">
         <v>1.75</v>
@@ -7049,212 +7049,212 @@
         <v>2.05</v>
       </c>
       <c r="S60" t="n">
-        <v>1.08</v>
+        <v>1.3</v>
       </c>
       <c r="T60" t="n">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="U60" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="V60" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="W60" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="X60" t="n">
-        <v>1.99</v>
+        <v>1.64</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="Z60" t="n">
-        <v>3.34</v>
+        <v>3.29</v>
       </c>
       <c r="AA60" t="n">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="AB60" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AC60" t="n">
-        <v>4.74</v>
+        <v>2.6</v>
       </c>
       <c r="AD60" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AE60" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AF60" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="AG60" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="AH60" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44955.54166666666</v>
+        <v>44955.54513888889</v>
       </c>
       <c r="C61" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>İstanbul Başakşehir</t>
+          <t>Ajaccio</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Olympique Lyonnais</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.89</v>
+        <v>4.3</v>
       </c>
       <c r="G61" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H61" t="n">
-        <v>3.85</v>
+        <v>1.8</v>
       </c>
       <c r="I61" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="J61" t="n">
-        <v>9.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="K61" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="L61" t="n">
-        <v>3.54</v>
+        <v>3.4</v>
       </c>
       <c r="M61" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="N61" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="O61" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P61" t="n">
-        <v>2.99</v>
+        <v>2.75</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="R61" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S61" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="T61" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="U61" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="V61" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="W61" t="n">
-        <v>1.56</v>
+        <v>1.1</v>
       </c>
       <c r="X61" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC61" t="n">
         <v>1.64</v>
       </c>
-      <c r="Y61" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>2.6</v>
-      </c>
       <c r="AD61" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AE61" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="AF61" t="n">
         <v>2.05</v>
       </c>
       <c r="AG61" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="AH61" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>Croatia Prva HNL</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44955.54513888889</v>
+        <v>44955.54861111111</v>
       </c>
       <c r="C62" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Ajaccio</t>
+          <t>Istra 1961</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Olympique Lyonnais</t>
+          <t>Hajduk Split</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>4.18</v>
+        <v>4.75</v>
       </c>
       <c r="G62" t="n">
-        <v>3.78</v>
+        <v>3.4</v>
       </c>
       <c r="H62" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="I62" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="J62" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="K62" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="L62" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M62" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="N62" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O62" t="n">
         <v>1.4</v>
@@ -7263,174 +7263,174 @@
         <v>2.75</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="R62" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="S62" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="T62" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="U62" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="V62" t="n">
-        <v>0.78</v>
+        <v>1.13</v>
       </c>
       <c r="W62" t="n">
-        <v>0.89</v>
+        <v>1.67</v>
       </c>
       <c r="X62" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="Y62" t="n">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="Z62" t="n">
-        <v>3.16</v>
+        <v>2.91</v>
       </c>
       <c r="AA62" t="n">
-        <v>2.65</v>
+        <v>3.96</v>
       </c>
       <c r="AB62" t="n">
         <v>7.5</v>
       </c>
       <c r="AC62" t="n">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
       <c r="AD62" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AE62" t="n">
-        <v>1.66</v>
+        <v>2</v>
       </c>
       <c r="AF62" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="AG62" t="n">
-        <v>2.65</v>
+        <v>3.7</v>
       </c>
       <c r="AH62" t="n">
-        <v>3.55</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Croatia Prva HNL</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44955.54861111111</v>
+        <v>44955.5625</v>
       </c>
       <c r="C63" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Istra 1961</t>
+          <t>Lechia Gdańsk</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Hajduk Split</t>
+          <t>Wisła Płock</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>2.37</v>
       </c>
       <c r="G63" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H63" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J63" t="n">
+        <v>8</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="L63" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
         <v>1.62</v>
       </c>
-      <c r="I63" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J63" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K63" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M63" t="n">
+      <c r="R63" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AA63" t="n">
         <v>1.95</v>
       </c>
-      <c r="N63" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="O63" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P63" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R63" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S63" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T63" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U63" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="V63" t="n">
+      <c r="AB63" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD63" t="n">
         <v>1.13</v>
       </c>
-      <c r="W63" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X63" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>1.57</v>
-      </c>
       <c r="AE63" t="n">
-        <v>2</v>
+        <v>1.24</v>
       </c>
       <c r="AF63" t="n">
-        <v>2.4</v>
+        <v>1.47</v>
       </c>
       <c r="AG63" t="n">
-        <v>3.7</v>
+        <v>1.81</v>
       </c>
       <c r="AH63" t="n">
-        <v>5.6</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Germany Bundesliga</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
@@ -7441,540 +7441,540 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Lechia Gdańsk</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Wisła Płock</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="G64" t="n">
-        <v>3.52</v>
+        <v>4.12</v>
       </c>
       <c r="H64" t="n">
-        <v>2.73</v>
+        <v>2.76</v>
       </c>
       <c r="I64" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="J64" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K64" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="L64" t="n">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="M64" t="n">
-        <v>1.8</v>
+        <v>1.49</v>
       </c>
       <c r="N64" t="n">
-        <v>1.97</v>
+        <v>2.39</v>
       </c>
       <c r="O64" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P64" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X64" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH64" t="n">
         <v>3</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R64" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S64" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="T64" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U64" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V64" t="n">
-        <v>1</v>
-      </c>
-      <c r="W64" t="n">
-        <v>1</v>
-      </c>
-      <c r="X64" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>2.29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Germany Bundesliga</t>
+          <t>Czech Republic First League</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44955.5625</v>
+        <v>44955.58333333334</v>
       </c>
       <c r="C65" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Zlín</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Baník Ostrava</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.45</v>
+        <v>2.79</v>
       </c>
       <c r="G65" t="n">
-        <v>3.92</v>
+        <v>3.6</v>
       </c>
       <c r="H65" t="n">
-        <v>2.84</v>
+        <v>2.16</v>
       </c>
       <c r="I65" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="J65" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K65" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="L65" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M65" t="n">
-        <v>1.49</v>
+        <v>1.67</v>
       </c>
       <c r="N65" t="n">
-        <v>2.39</v>
+        <v>2.14</v>
       </c>
       <c r="O65" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P65" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="R65" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="S65" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U65" t="n">
         <v>1.42</v>
       </c>
-      <c r="T65" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U65" t="n">
-        <v>1.46</v>
-      </c>
       <c r="V65" t="n">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="W65" t="n">
-        <v>1.33</v>
+        <v>0.71</v>
       </c>
       <c r="X65" t="n">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="Y65" t="n">
-        <v>1.83</v>
+        <v>1.51</v>
       </c>
       <c r="Z65" t="n">
-        <v>3.66</v>
+        <v>3.15</v>
       </c>
       <c r="AA65" t="n">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="AB65" t="n">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="AC65" t="n">
-        <v>2.18</v>
+        <v>1.76</v>
       </c>
       <c r="AD65" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AE65" t="n">
         <v>1.3</v>
       </c>
-      <c r="AE65" t="n">
+      <c r="AF65" t="n">
         <v>1.55</v>
       </c>
-      <c r="AF65" t="n">
-        <v>1.85</v>
-      </c>
       <c r="AG65" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AH65" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Czech Republic First League</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
         <v>44955.58333333334</v>
       </c>
       <c r="C66" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Zlín</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Baník Ostrava</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.86</v>
+        <v>2.15</v>
       </c>
       <c r="G66" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="H66" t="n">
-        <v>2.29</v>
+        <v>3.5</v>
       </c>
       <c r="I66" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="J66" t="n">
         <v>10</v>
       </c>
       <c r="K66" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="L66" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M66" t="n">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="N66" t="n">
-        <v>2.14</v>
+        <v>1.9</v>
       </c>
       <c r="O66" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P66" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="R66" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="S66" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="T66" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="U66" t="n">
-        <v>1.42</v>
+        <v>1.66</v>
       </c>
       <c r="V66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W66" t="n">
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
       <c r="X66" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="Y66" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="Z66" t="n">
-        <v>3.15</v>
+        <v>3.14</v>
       </c>
       <c r="AA66" t="n">
-        <v>2.25</v>
+        <v>1.82</v>
       </c>
       <c r="AB66" t="n">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="AC66" t="n">
-        <v>1.76</v>
+        <v>2.3</v>
       </c>
       <c r="AD66" t="n">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AE66" t="n">
-        <v>1.3</v>
+        <v>1.74</v>
       </c>
       <c r="AF66" t="n">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="AG66" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="AH66" t="n">
-        <v>2.5</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
         <v>44955.58333333334</v>
       </c>
       <c r="C67" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>SSC Farul</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.3</v>
+        <v>2.03</v>
       </c>
       <c r="G67" t="n">
-        <v>3.24</v>
+        <v>3.35</v>
       </c>
       <c r="H67" t="n">
-        <v>3.66</v>
+        <v>3.25</v>
       </c>
       <c r="I67" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="J67" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K67" t="n">
         <v>1.33</v>
       </c>
       <c r="L67" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M67" t="n">
-        <v>1.97</v>
+        <v>2.2</v>
       </c>
       <c r="N67" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q67" t="n">
         <v>1.83</v>
       </c>
-      <c r="O67" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P67" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q67" t="n">
+      <c r="R67" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U67" t="n">
         <v>1.75</v>
-      </c>
-      <c r="R67" t="n">
-        <v>2</v>
-      </c>
-      <c r="S67" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T67" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="U67" t="n">
-        <v>1.66</v>
       </c>
       <c r="V67" t="n">
         <v>2</v>
       </c>
       <c r="W67" t="n">
-        <v>0.89</v>
+        <v>1.73</v>
       </c>
       <c r="X67" t="n">
-        <v>1.53</v>
+        <v>2.06</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="Z67" t="n">
-        <v>3.14</v>
+        <v>3.61</v>
       </c>
       <c r="AA67" t="n">
-        <v>1.82</v>
+        <v>1.44</v>
       </c>
       <c r="AB67" t="n">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="AC67" t="n">
-        <v>2.3</v>
+        <v>3.15</v>
       </c>
       <c r="AD67" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="AE67" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="AF67" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AG67" t="n">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="AH67" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
         <v>44955.58333333334</v>
       </c>
       <c r="C68" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Pyramids FC</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SSC Farul</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.26</v>
+        <v>1.59</v>
       </c>
       <c r="G68" t="n">
-        <v>3.24</v>
+        <v>3.95</v>
       </c>
       <c r="H68" t="n">
-        <v>3.18</v>
+        <v>5</v>
       </c>
       <c r="I68" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="J68" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K68" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="L68" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M68" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="N68" t="n">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="O68" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="P68" t="n">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R68" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S68" t="n">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="T68" t="n">
         <v>1.25</v>
       </c>
       <c r="U68" t="n">
-        <v>1.75</v>
+        <v>2.38</v>
       </c>
       <c r="V68" t="n">
-        <v>2</v>
+        <v>2.71</v>
       </c>
       <c r="W68" t="n">
-        <v>1.73</v>
+        <v>1.17</v>
       </c>
       <c r="X68" t="n">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="Y68" t="n">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="Z68" t="n">
-        <v>3.61</v>
+        <v>3.52</v>
       </c>
       <c r="AA68" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AB68" t="n">
-        <v>5.75</v>
+        <v>8.5</v>
       </c>
       <c r="AC68" t="n">
-        <v>3.15</v>
+        <v>3.52</v>
       </c>
       <c r="AD68" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="AE68" t="n">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="AF68" t="n">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="AG68" t="n">
-        <v>2.95</v>
+        <v>2.45</v>
       </c>
       <c r="AH68" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="69">
@@ -8000,13 +8000,13 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.04</v>
+        <v>2.11</v>
       </c>
       <c r="G69" t="n">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="H69" t="n">
-        <v>3.94</v>
+        <v>3.3</v>
       </c>
       <c r="I69" t="n">
         <v>1.05</v>
@@ -8021,10 +8021,10 @@
         <v>3.05</v>
       </c>
       <c r="M69" t="n">
-        <v>2.01</v>
+        <v>1.97</v>
       </c>
       <c r="N69" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="O69" t="n">
         <v>1.43</v>
@@ -8110,13 +8110,13 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>4.18</v>
+        <v>3.55</v>
       </c>
       <c r="G70" t="n">
-        <v>4.08</v>
+        <v>3.9</v>
       </c>
       <c r="H70" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="I70" t="n">
         <v>1.01</v>
@@ -8131,10 +8131,10 @@
         <v>4.6</v>
       </c>
       <c r="M70" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="N70" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="O70" t="n">
         <v>1.26</v>
@@ -8220,13 +8220,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="G71" t="n">
-        <v>3.52</v>
+        <v>3.45</v>
       </c>
       <c r="H71" t="n">
-        <v>4.48</v>
+        <v>4.2</v>
       </c>
       <c r="I71" t="n">
         <v>1.07</v>
@@ -8241,10 +8241,10 @@
         <v>2.75</v>
       </c>
       <c r="M71" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="N71" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="O71" t="n">
         <v>1.5</v>
@@ -8330,13 +8330,13 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="G72" t="n">
-        <v>3.24</v>
+        <v>3.2</v>
       </c>
       <c r="H72" t="n">
-        <v>4.26</v>
+        <v>4</v>
       </c>
       <c r="I72" t="n">
         <v>1.09</v>
@@ -8348,13 +8348,13 @@
         <v>1.5</v>
       </c>
       <c r="L72" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="M72" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="N72" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="O72" t="n">
         <v>1.55</v>
@@ -8440,13 +8440,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>3.22</v>
+        <v>2.84</v>
       </c>
       <c r="G73" t="n">
         <v>3.15</v>
       </c>
       <c r="H73" t="n">
-        <v>2.57</v>
+        <v>2.72</v>
       </c>
       <c r="I73" t="n">
         <v>1.09</v>
@@ -8461,10 +8461,10 @@
         <v>2.75</v>
       </c>
       <c r="M73" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="N73" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="O73" t="n">
         <v>1.53</v>
@@ -8550,13 +8550,13 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G74" t="n">
-        <v>3.94</v>
+        <v>4.05</v>
       </c>
       <c r="H74" t="n">
-        <v>7.8</v>
+        <v>6.1</v>
       </c>
       <c r="I74" t="n">
         <v>1.03</v>
@@ -8660,13 +8660,13 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.37</v>
+        <v>2.31</v>
       </c>
       <c r="G75" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H75" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="I75" t="n">
         <v>1.08</v>
@@ -8681,10 +8681,10 @@
         <v>2.8</v>
       </c>
       <c r="M75" t="n">
-        <v>2.28</v>
+        <v>2.35</v>
       </c>
       <c r="N75" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="O75" t="n">
         <v>1.48</v>
@@ -8770,13 +8770,13 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.7</v>
+        <v>2.51</v>
       </c>
       <c r="G76" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H76" t="n">
-        <v>2.6</v>
+        <v>2.51</v>
       </c>
       <c r="I76" t="n">
         <v>1.07</v>
@@ -8880,13 +8880,13 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>5.75</v>
+        <v>4.47</v>
       </c>
       <c r="G77" t="n">
-        <v>4.25</v>
+        <v>4.05</v>
       </c>
       <c r="H77" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -8993,10 +8993,10 @@
         <v>1.25</v>
       </c>
       <c r="G78" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="H78" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="I78" t="n">
         <v>1.02</v>
@@ -9100,13 +9100,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G79" t="n">
-        <v>3.92</v>
+        <v>3.85</v>
       </c>
       <c r="H79" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="I79" t="n">
         <v>1.05</v>
@@ -9121,10 +9121,10 @@
         <v>3.6</v>
       </c>
       <c r="M79" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="N79" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="O79" t="n">
         <v>1.4</v>
@@ -9210,13 +9210,13 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="G80" t="n">
-        <v>6.45</v>
+        <v>5.95</v>
       </c>
       <c r="H80" t="n">
-        <v>11.5</v>
+        <v>9.66</v>
       </c>
       <c r="I80" t="n">
         <v>1.02</v>
@@ -9320,13 +9320,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="G81" t="n">
-        <v>3.13</v>
+        <v>2.98</v>
       </c>
       <c r="H81" t="n">
-        <v>2.84</v>
+        <v>2.77</v>
       </c>
       <c r="I81" t="n">
         <v>1.09</v>
@@ -9341,10 +9341,10 @@
         <v>2.5</v>
       </c>
       <c r="M81" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="N81" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="O81" t="n">
         <v>1.55</v>
@@ -9430,13 +9430,13 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="G82" t="n">
-        <v>3.98</v>
+        <v>4</v>
       </c>
       <c r="H82" t="n">
-        <v>5.15</v>
+        <v>4.4</v>
       </c>
       <c r="I82" t="n">
         <v>1.05</v>
@@ -9451,10 +9451,10 @@
         <v>3.6</v>
       </c>
       <c r="M82" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="N82" t="n">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="O82" t="n">
         <v>1.36</v>
@@ -9646,13 +9646,13 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="G84" t="n">
-        <v>3.82</v>
+        <v>3.4</v>
       </c>
       <c r="H84" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -9667,10 +9667,10 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="N84" t="n">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -9756,13 +9756,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2.23</v>
+        <v>2.19</v>
       </c>
       <c r="G85" t="n">
         <v>3.3</v>
       </c>
       <c r="H85" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I85" t="n">
         <v>1.08</v>
@@ -9777,10 +9777,10 @@
         <v>2.8</v>
       </c>
       <c r="M85" t="n">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="N85" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="O85" t="n">
         <v>1.46</v>
@@ -9866,10 +9866,10 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H86" t="n">
         <v>2.05</v>
@@ -9887,10 +9887,10 @@
         <v>3</v>
       </c>
       <c r="M86" t="n">
-        <v>2.15</v>
+        <v>1.88</v>
       </c>
       <c r="N86" t="n">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="O86" t="n">
         <v>1.44</v>
@@ -10298,13 +10298,13 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="G90" t="n">
-        <v>4.23</v>
+        <v>4.3</v>
       </c>
       <c r="H90" t="n">
-        <v>6.51</v>
+        <v>5.85</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -10319,10 +10319,10 @@
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="N90" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="O90" t="n">
         <v>0</v>
@@ -10408,13 +10408,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="G91" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H91" t="n">
-        <v>4.33</v>
+        <v>5.1</v>
       </c>
       <c r="I91" t="n">
         <v>1.05</v>
@@ -10429,10 +10429,10 @@
         <v>3.3</v>
       </c>
       <c r="M91" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="N91" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="O91" t="n">
         <v>1.38</v>
